--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2254321.159347428</v>
+        <v>2250016.036350356</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283181</v>
+        <v>416855.1052283188</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>96.86671316392828</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="D2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -676,7 +676,7 @@
         <v>13.09783323005805</v>
       </c>
       <c r="H2" t="n">
-        <v>173.9484321805922</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>77.08171901666375</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>187.5255871663201</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -749,7 +749,7 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -761,7 +761,7 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265835</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -788,7 +788,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>149.7702446909496</v>
+        <v>0</v>
       </c>
       <c r="T3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>187.5255871663201</v>
+        <v>60.183846384392</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>187.52558716632</v>
       </c>
       <c r="X3" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="Y3" t="n">
-        <v>40.10359305416813</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -834,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>52.21594625443453</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -843,7 +843,7 @@
         <v>0</v>
       </c>
       <c r="K4" t="n">
-        <v>14.10430989402848</v>
+        <v>0</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -879,7 +879,7 @@
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>38.11163636040618</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -895,22 +895,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>288.3636365577808</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
-        <v>12.25188473404938</v>
+        <v>193.6621156073627</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425921</v>
+        <v>23.94240680425898</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -952,7 +952,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>251.1015846853496</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -964,7 +964,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -974,19 +974,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0</v>
+        <v>166.5331836498673</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>172.7084989883157</v>
       </c>
       <c r="D6" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E6" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F6" t="n">
-        <v>83.64648476337989</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -1022,7 +1022,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074802</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -1031,13 +1031,13 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>225.8339906239991</v>
+        <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>196.3506765115069</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>40.05337266685267</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
@@ -1113,13 +1113,13 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>79.77074001252366</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1132,10 +1132,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -1147,13 +1147,13 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
-        <v>411.8707348436268</v>
+        <v>11.87073484362677</v>
       </c>
       <c r="H8" t="n">
-        <v>304.326804756183</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>78.16360657708299</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,10 +1183,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>118.9854871850571</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
         <v>0</v>
@@ -1198,10 +1198,10 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>58.18002036335049</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1217,22 +1217,22 @@
         <v>172.7084989883157</v>
       </c>
       <c r="D9" t="n">
-        <v>0</v>
+        <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470353</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185511</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>36.2994675790488</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -1259,25 +1259,25 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721423</v>
+        <v>31.66886087721431</v>
       </c>
       <c r="S9" t="n">
-        <v>137.5750138932992</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>192.7632183107638</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>113.4882439400689</v>
+        <v>155.8151780692417</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -1296,13 +1296,13 @@
         <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
@@ -1335,13 +1335,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425553</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596158</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1350,13 +1350,13 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>22.82561491403814</v>
+        <v>9.085774025512624</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1378,7 +1378,7 @@
         <v>354.683041620683</v>
       </c>
       <c r="E11" t="n">
-        <v>381.9303700722614</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
         <v>406.8760457417114</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>141.6930519056948</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
@@ -1542,13 +1542,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,19 +1575,19 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
       </c>
       <c r="V13" t="n">
-        <v>35.9987177458277</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
         <v>286.522998336591</v>
@@ -1669,7 +1669,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
@@ -1767,7 +1767,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1776,7 +1776,7 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
@@ -1785,7 +1785,7 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1812,13 +1812,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>217.4054503272883</v>
+        <v>71.79687029691033</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1827,13 +1827,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
-        <v>233.683761705317</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="17">
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.240968717413</v>
+        <v>349.2409687174127</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>28.42659968729146</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2055,7 +2055,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2064,13 +2064,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W19" t="n">
-        <v>150.672680124696</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2131,7 +2131,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2256,10 +2256,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>75.75905456204198</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2286,16 +2286,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>286.1844743892441</v>
+        <v>106.997776813539</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
@@ -2320,7 +2320,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C23" t="n">
-        <v>365.2728917710071</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D23" t="n">
         <v>354.683041620683</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2481,19 +2481,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="H25" t="n">
-        <v>134.0367616438388</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
         <v>81.26583631856553</v>
@@ -2532,13 +2532,13 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W25" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
         <v>225.7096553890372</v>
@@ -2554,22 +2554,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F26" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187864</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2605,16 +2605,16 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>83.70251495695524</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T26" t="n">
-        <v>199.022230457616</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U26" t="n">
         <v>250.9057009881286</v>
       </c>
       <c r="V26" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W26" t="n">
         <v>349.240968717413</v>
@@ -2623,7 +2623,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y26" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="27">
@@ -2724,16 +2724,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
-        <v>78.34975387299674</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>19.91555826189063</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2769,7 +2769,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2778,7 +2778,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X28" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y28" t="n">
         <v>218.5846533520948</v>
@@ -2791,22 +2791,22 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>382.7338416634805</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C29" t="n">
-        <v>365.2728917710075</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D29" t="n">
-        <v>354.6830416206829</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E29" t="n">
-        <v>381.9303700722617</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
         <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
-        <v>409.8033385187865</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
         <v>283.1540821444137</v>
@@ -2842,16 +2842,16 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695433</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881293</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V29" t="n">
-        <v>327.7522584701348</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W29" t="n">
         <v>349.240968717413</v>
@@ -2860,7 +2860,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y29" t="n">
-        <v>386.2379386560535</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="30">
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3009,16 +3009,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>117.4665281367395</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -3043,10 +3043,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H32" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
@@ -3189,10 +3189,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>24.83266606353065</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -3204,10 +3204,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,7 +3234,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
@@ -3246,10 +3246,10 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V34" t="n">
-        <v>108.3106907504111</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W34" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X34" t="n">
         <v>225.7096553890372</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3423,10 +3423,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>96.03245356584388</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C37" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -3435,16 +3435,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>145.4210480229312</v>
+        <v>103.8784673763403</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3474,7 +3474,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
         <v>217.4054503272883</v>
@@ -3553,7 +3553,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3666,13 +3666,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>9.146142788179368</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
         <v>165.5241382922688</v>
@@ -3708,16 +3708,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
-        <v>186.9166231085223</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V40" t="n">
         <v>252.137643323828</v>
@@ -3796,7 +3796,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,13 +3897,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>167.2468210986278</v>
+        <v>134.3391137331265</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
         <v>146.4339626465692</v>
@@ -3918,7 +3918,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3954,10 +3954,10 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U43" t="n">
-        <v>107.9721668030643</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V43" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W43" t="n">
         <v>286.522998336591</v>
@@ -3966,7 +3966,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -4030,7 +4030,7 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4134,22 +4134,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>130.2301075198431</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
         <v>140.2947128462239</v>
@@ -4188,10 +4188,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T46" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>286.1844743892441</v>
+        <v>1.255571502167365</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>400.3029543659135</v>
+        <v>414.017252331295</v>
       </c>
       <c r="C2" t="n">
-        <v>400.3029543659135</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="D2" t="n">
-        <v>210.8831693494285</v>
+        <v>224.5974673148102</v>
       </c>
       <c r="E2" t="n">
-        <v>210.8831693494285</v>
+        <v>35.17768229832528</v>
       </c>
       <c r="F2" t="n">
-        <v>203.9376686002251</v>
+        <v>28.23218154912181</v>
       </c>
       <c r="G2" t="n">
-        <v>190.7075340244089</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I2" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678489</v>
+        <v>21.03371160678478</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058956</v>
+        <v>80.81213159058944</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079187</v>
+        <v>191.8743094079185</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644757</v>
+        <v>347.1218190644755</v>
       </c>
       <c r="N2" t="n">
-        <v>509.4952041123832</v>
+        <v>509.495204112383</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985589</v>
+        <v>649.4845259985585</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020271</v>
+        <v>734.4611726020269</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.1023486652804</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R2" t="n">
-        <v>750.1023486652804</v>
+        <v>672.2420264262257</v>
       </c>
       <c r="S2" t="n">
-        <v>589.7227393823985</v>
+        <v>511.8624171433438</v>
       </c>
       <c r="T2" t="n">
-        <v>589.7227393823985</v>
+        <v>511.8624171433438</v>
       </c>
       <c r="U2" t="n">
-        <v>589.7227393823985</v>
+        <v>511.8624171433438</v>
       </c>
       <c r="V2" t="n">
-        <v>589.7227393823985</v>
+        <v>511.8624171433438</v>
       </c>
       <c r="W2" t="n">
-        <v>589.7227393823985</v>
+        <v>511.8624171433438</v>
       </c>
       <c r="X2" t="n">
-        <v>589.7227393823985</v>
+        <v>511.8624171433438</v>
       </c>
       <c r="Y2" t="n">
-        <v>400.3029543659135</v>
+        <v>511.8624171433438</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>179.4710233342118</v>
+        <v>310.4710146076719</v>
       </c>
       <c r="C3" t="n">
-        <v>179.4710233342118</v>
+        <v>310.4710146076719</v>
       </c>
       <c r="D3" t="n">
-        <v>30.53661367296051</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="E3" t="n">
-        <v>30.53661367296051</v>
+        <v>161.5366049464206</v>
       </c>
       <c r="F3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="G3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="H3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I3" t="n">
-        <v>30.53661367296051</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J3" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024222</v>
+        <v>67.13418877024208</v>
       </c>
       <c r="L3" t="n">
-        <v>183.5548280772651</v>
+        <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140246</v>
+        <v>338.7690911140245</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546605</v>
+        <v>512.5000587546604</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476354</v>
+        <v>649.2101578476352</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017068</v>
+        <v>739.5989987017066</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.10234866528</v>
       </c>
       <c r="R3" t="n">
-        <v>750.1023486652804</v>
+        <v>750.10234866528</v>
       </c>
       <c r="S3" t="n">
-        <v>598.8192732198768</v>
+        <v>750.10234866528</v>
       </c>
       <c r="T3" t="n">
-        <v>598.8192732198768</v>
+        <v>750.10234866528</v>
       </c>
       <c r="U3" t="n">
-        <v>598.8192732198768</v>
+        <v>750.10234866528</v>
       </c>
       <c r="V3" t="n">
-        <v>409.3994882033918</v>
+        <v>689.3105846406417</v>
       </c>
       <c r="W3" t="n">
-        <v>409.3994882033918</v>
+        <v>499.8907996241568</v>
       </c>
       <c r="X3" t="n">
-        <v>219.9797031869068</v>
+        <v>310.4710146076719</v>
       </c>
       <c r="Y3" t="n">
-        <v>179.4710233342118</v>
+        <v>310.4710146076719</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>29.24882464404144</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="C4" t="n">
-        <v>29.24882464404144</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="D4" t="n">
-        <v>29.24882464404144</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="E4" t="n">
-        <v>29.24882464404144</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="F4" t="n">
-        <v>29.24882464404144</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="G4" t="n">
-        <v>29.24882464404144</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="H4" t="n">
-        <v>29.24882464404144</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="I4" t="n">
-        <v>29.24882464404144</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="J4" t="n">
-        <v>29.24882464404144</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="K4" t="n">
-        <v>15.00204697330561</v>
+        <v>15.0020469733056</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230183</v>
+        <v>27.03967056230179</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170729</v>
+        <v>42.98993985170723</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396353</v>
+        <v>66.41847329396343</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702829011</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="W4" t="n">
-        <v>29.24882464404144</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="X4" t="n">
-        <v>29.24882464404144</v>
+        <v>67.74542702828998</v>
       </c>
       <c r="Y4" t="n">
-        <v>29.24882464404144</v>
+        <v>67.74542702828998</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>707.1726149660888</v>
+        <v>964.350071206419</v>
       </c>
       <c r="C5" t="n">
-        <v>338.210098025677</v>
+        <v>595.3875542660073</v>
       </c>
       <c r="D5" t="n">
-        <v>338.210098025677</v>
+        <v>237.1218556592568</v>
       </c>
       <c r="E5" t="n">
-        <v>338.210098025677</v>
+        <v>237.1218556592568</v>
       </c>
       <c r="F5" t="n">
-        <v>46.93369746226206</v>
+        <v>230.1763549100534</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017214</v>
+        <v>111.6705539017221</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746972</v>
+        <v>277.9807166746981</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030753</v>
+        <v>521.2049416030769</v>
       </c>
       <c r="M5" t="n">
-        <v>823.5081935709169</v>
+        <v>823.508193570919</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582751</v>
+        <v>1135.316836582753</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079238</v>
+        <v>1416.413635079241</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.822248332756</v>
+        <v>1621.82224833276</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837882</v>
+        <v>1727.902815837886</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.71856654065</v>
+        <v>1703.718566540655</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.71856654065</v>
+        <v>1703.718566540655</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.71856654065</v>
+        <v>1703.718566540655</v>
       </c>
       <c r="U5" t="n">
-        <v>1450.080602212015</v>
+        <v>1703.718566540655</v>
       </c>
       <c r="V5" t="n">
-        <v>1450.080602212015</v>
+        <v>1703.718566540655</v>
       </c>
       <c r="W5" t="n">
-        <v>1097.3119469419</v>
+        <v>1350.949911270541</v>
       </c>
       <c r="X5" t="n">
-        <v>1097.3119469419</v>
+        <v>1350.949911270541</v>
       </c>
       <c r="Y5" t="n">
-        <v>707.1726149660888</v>
+        <v>1350.949911270541</v>
       </c>
     </row>
     <row r="6">
@@ -4622,76 +4622,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>267.9838647288977</v>
+        <v>663.7175082377065</v>
       </c>
       <c r="C6" t="n">
-        <v>267.9838647288977</v>
+        <v>489.2644789565795</v>
       </c>
       <c r="D6" t="n">
-        <v>119.0494550676464</v>
+        <v>340.3300692953283</v>
       </c>
       <c r="E6" t="n">
-        <v>119.0494550676464</v>
+        <v>181.0926142898728</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787522</v>
+        <v>61.66788464787547</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806061</v>
+        <v>186.1577239806067</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189975</v>
+        <v>399.8722171189985</v>
       </c>
       <c r="M6" t="n">
-        <v>668.6238185223494</v>
+        <v>668.623818522351</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352471</v>
+        <v>958.8971200352491</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.220686228318</v>
+        <v>1202.22068622832</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.176233639507</v>
+        <v>1378.17623363951</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906548</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="R6" t="n">
-        <v>1401.100270703772</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="S6" t="n">
-        <v>1401.100270703772</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="T6" t="n">
-        <v>1401.100270703772</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="U6" t="n">
-        <v>1172.985128659329</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="V6" t="n">
-        <v>937.833020427586</v>
+        <v>1445.878660906551</v>
       </c>
       <c r="W6" t="n">
-        <v>683.5956636993844</v>
+        <v>1247.544644228261</v>
       </c>
       <c r="X6" t="n">
-        <v>475.7441634938516</v>
+        <v>1039.693144022728</v>
       </c>
       <c r="Y6" t="n">
-        <v>267.9838647288977</v>
+        <v>831.9328452577745</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>34.55805631675764</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="C7" t="n">
-        <v>34.55805631675764</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="D7" t="n">
-        <v>34.55805631675764</v>
+        <v>329.3610973970612</v>
       </c>
       <c r="E7" t="n">
-        <v>34.55805631675764</v>
+        <v>181.4480038146681</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675764</v>
+        <v>34.55805631675772</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574677</v>
+        <v>64.24066662574705</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584113</v>
+        <v>132.1299861584118</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347968</v>
+        <v>206.9680378347977</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195361</v>
+        <v>287.8841338195373</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934711</v>
+        <v>342.3101561934724</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495857997</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495857997</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495857997</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495857997</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495857997</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495857997</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="V7" t="n">
-        <v>115.1345613799129</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="W7" t="n">
-        <v>115.1345613799129</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="X7" t="n">
-        <v>34.55805631675764</v>
+        <v>369.8190495858013</v>
       </c>
       <c r="Y7" t="n">
-        <v>34.55805631675764</v>
+        <v>369.8190495858013</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1546.749476449738</v>
+        <v>545.2988805405388</v>
       </c>
       <c r="C8" t="n">
-        <v>1177.786959509327</v>
+        <v>545.2988805405388</v>
       </c>
       <c r="D8" t="n">
-        <v>1177.786959509327</v>
+        <v>545.2988805405388</v>
       </c>
       <c r="E8" t="n">
-        <v>1177.786959509327</v>
+        <v>545.2988805405388</v>
       </c>
       <c r="F8" t="n">
-        <v>766.8010547197192</v>
+        <v>134.3129757509312</v>
       </c>
       <c r="G8" t="n">
-        <v>350.7700094231265</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="H8" t="n">
-        <v>43.3691965380931</v>
+        <v>122.3223344947425</v>
       </c>
       <c r="I8" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301902</v>
+        <v>152.5078184301901</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232723</v>
+        <v>366.8168396232718</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711875</v>
+        <v>669.5878927711865</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.148464578731</v>
+        <v>1038.14846457873</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135168</v>
+        <v>1417.286540135166</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545598</v>
+        <v>1761.960612545596</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172449</v>
+        <v>2021.630958172447</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904655</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904655</v>
+        <v>2168.459826904653</v>
       </c>
       <c r="S8" t="n">
-        <v>2168.459826904655</v>
+        <v>2048.272466111666</v>
       </c>
       <c r="T8" t="n">
-        <v>1958.28582905657</v>
+        <v>2048.272466111666</v>
       </c>
       <c r="U8" t="n">
-        <v>1958.28582905657</v>
+        <v>2048.272466111666</v>
       </c>
       <c r="V8" t="n">
-        <v>1958.28582905657</v>
+        <v>2048.272466111666</v>
       </c>
       <c r="W8" t="n">
-        <v>1605.517173786456</v>
+        <v>1695.503810841552</v>
       </c>
       <c r="X8" t="n">
-        <v>1605.517173786456</v>
+        <v>1322.038052580472</v>
       </c>
       <c r="Y8" t="n">
-        <v>1546.749476449738</v>
+        <v>931.8987206046606</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>655.7157345966835</v>
+        <v>503.6326292653554</v>
       </c>
       <c r="C9" t="n">
-        <v>481.2627053155565</v>
+        <v>329.1795999842284</v>
       </c>
       <c r="D9" t="n">
-        <v>481.2627053155565</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="E9" t="n">
-        <v>322.025250310101</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="F9" t="n">
-        <v>175.4906923369859</v>
+        <v>180.2451903229772</v>
       </c>
       <c r="G9" t="n">
-        <v>175.4906923369859</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H9" t="n">
-        <v>80.03532540581917</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I9" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562335</v>
+        <v>89.55356510562316</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504523</v>
+        <v>246.6448318504519</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104402</v>
+        <v>504.1959674104395</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789497</v>
+        <v>824.1028628789488</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.885386873582</v>
+        <v>1166.88538687358</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128148</v>
+        <v>1458.244633128146</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689049</v>
+        <v>1672.753048689047</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333489</v>
+        <v>1766.227047333487</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972666</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="S9" t="n">
-        <v>1595.273638474384</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="T9" t="n">
-        <v>1400.56331694836</v>
+        <v>1734.238298972664</v>
       </c>
       <c r="U9" t="n">
-        <v>1285.928727109907</v>
+        <v>1576.849230215854</v>
       </c>
       <c r="V9" t="n">
-        <v>1285.928727109907</v>
+        <v>1341.697121984112</v>
       </c>
       <c r="W9" t="n">
-        <v>1031.691370381705</v>
+        <v>1087.45976525591</v>
       </c>
       <c r="X9" t="n">
-        <v>1031.691370381705</v>
+        <v>879.6082650503772</v>
       </c>
       <c r="Y9" t="n">
-        <v>823.9310716167515</v>
+        <v>671.8479662854234</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>43.3691965380931</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="C10" t="n">
-        <v>43.3691965380931</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="D10" t="n">
-        <v>43.3691965380931</v>
+        <v>338.1722376183965</v>
       </c>
       <c r="E10" t="n">
-        <v>43.3691965380931</v>
+        <v>190.2591440360034</v>
       </c>
       <c r="F10" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="G10" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="H10" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="I10" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="J10" t="n">
-        <v>43.3691965380931</v>
+        <v>43.36919653809306</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981541</v>
+        <v>92.71685897981523</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018945</v>
+        <v>185.7706748018941</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927338</v>
+        <v>287.1411594927332</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377468</v>
+        <v>393.9588065377461</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033668</v>
+        <v>472.3091036033659</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470406002</v>
+        <v>520.2893470405991</v>
       </c>
       <c r="Q10" t="n">
-        <v>520.2893470406002</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="R10" t="n">
-        <v>520.2893470406002</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="S10" t="n">
-        <v>321.1098614248266</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="T10" t="n">
-        <v>321.1098614248266</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="U10" t="n">
-        <v>321.1098614248266</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="V10" t="n">
-        <v>66.42537321893971</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="W10" t="n">
-        <v>66.42537321893971</v>
+        <v>497.4664265514521</v>
       </c>
       <c r="X10" t="n">
-        <v>43.3691965380931</v>
+        <v>488.2888770307322</v>
       </c>
       <c r="Y10" t="n">
-        <v>43.3691965380931</v>
+        <v>488.2888770307322</v>
       </c>
     </row>
     <row r="11">
@@ -5023,7 +5023,7 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
         <v>1204.759558406469</v>
@@ -5038,13 +5038,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111719</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5053,16 +5053,16 @@
         <v>2206.558663014779</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P11" t="n">
         <v>4194.413870694708</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
@@ -5123,13 +5123,13 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>243.4633055756266</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452613</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718132</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
         <v>1577.52840832642</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>951.7772127656159</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C13" t="n">
-        <v>782.841029837709</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D13" t="n">
-        <v>632.7243904253733</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429802</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578601</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000582</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I13" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O13" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P13" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
         <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
-        <v>2197.062545487568</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T13" t="n">
-        <v>2197.062545487568</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U13" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V13" t="n">
-        <v>1871.624977674364</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1582.207807637403</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X13" t="n">
-        <v>1354.218256739386</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y13" t="n">
-        <v>1133.425677595856</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="14">
@@ -5269,28 +5269,28 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J14" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5317,10 +5317,10 @@
         <v>3820.749612123002</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5354,25 +5354,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I15" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>579.1554649516142</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>1074.481071167373</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P15" t="n">
         <v>2553.061288060775</v>
@@ -5412,25 +5412,25 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>788.0191461778176</v>
+        <v>727.9786782557277</v>
       </c>
       <c r="C16" t="n">
-        <v>788.0191461778176</v>
+        <v>559.0424953278208</v>
       </c>
       <c r="D16" t="n">
-        <v>637.9025067654818</v>
+        <v>408.925855915485</v>
       </c>
       <c r="E16" t="n">
-        <v>489.9894131830887</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F16" t="n">
-        <v>343.0994656851783</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H16" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I16" t="n">
         <v>93.81666304797187</v>
@@ -5460,28 +5460,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T16" t="n">
-        <v>1977.461080510508</v>
+        <v>2191.586158026164</v>
       </c>
       <c r="U16" t="n">
-        <v>1688.385853854706</v>
+        <v>1902.510931370362</v>
       </c>
       <c r="V16" t="n">
-        <v>1433.701365648819</v>
+        <v>1647.826443164475</v>
       </c>
       <c r="W16" t="n">
-        <v>1197.657161906075</v>
+        <v>1358.409273127515</v>
       </c>
       <c r="X16" t="n">
-        <v>969.6676110080573</v>
+        <v>1130.419722229497</v>
       </c>
       <c r="Y16" t="n">
-        <v>969.6676110080573</v>
+        <v>909.6271430859674</v>
       </c>
     </row>
     <row r="17">
@@ -5512,13 +5512,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
@@ -5551,7 +5551,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5591,31 +5591,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J18" t="n">
-        <v>245.2306927803937</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K18" t="n">
-        <v>245.2306927803937</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L18" t="n">
-        <v>740.5562989961525</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M18" t="n">
-        <v>1337.934786622704</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N18" t="n">
-        <v>1540.888753373307</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O18" t="n">
-        <v>2092.798483612594</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5649,25 +5649,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>1098.667160263527</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>734.6461798836013</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>584.5295404712656</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>436.6164468888725</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>289.7264993909621</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>122.530400105842</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5703,22 +5703,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1501.108204237296</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1501.108204237296</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1280.315625093766</v>
+        <v>916.2946447138411</v>
       </c>
     </row>
     <row r="20">
@@ -5743,19 +5743,19 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J20" t="n">
         <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5828,31 +5828,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J21" t="n">
-        <v>214.9229991561138</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K21" t="n">
-        <v>214.9229991561138</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L21" t="n">
-        <v>710.2486053718725</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M21" t="n">
-        <v>1307.627092998424</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5886,25 +5886,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>951.3929232910542</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C22" t="n">
-        <v>782.4567403631473</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D22" t="n">
-        <v>632.3401009508116</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E22" t="n">
-        <v>484.4270073684185</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F22" t="n">
-        <v>337.5370598705081</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>170.340960585388</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
-        <v>170.340960585388</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I22" t="n">
         <v>93.81666304797187</v>
@@ -5934,28 +5934,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T22" t="n">
-        <v>2160.315914855604</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U22" t="n">
-        <v>1871.240688199802</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="V22" t="n">
-        <v>1871.240688199802</v>
+        <v>1936.428221820188</v>
       </c>
       <c r="W22" t="n">
-        <v>1581.823518162841</v>
+        <v>1647.011051783227</v>
       </c>
       <c r="X22" t="n">
-        <v>1353.833967264824</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y22" t="n">
-        <v>1133.041388121294</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="23">
@@ -5986,13 +5986,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6044,76 +6044,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>3081.170977615666</v>
+        <v>943.3991132778466</v>
       </c>
       <c r="C24" t="n">
-        <v>2906.717948334539</v>
+        <v>768.9460839967196</v>
       </c>
       <c r="D24" t="n">
-        <v>2757.783538673288</v>
+        <v>620.0116743354683</v>
       </c>
       <c r="E24" t="n">
-        <v>2598.546083667832</v>
+        <v>460.7742193300128</v>
       </c>
       <c r="F24" t="n">
-        <v>2452.011525694717</v>
+        <v>314.2396613568978</v>
       </c>
       <c r="G24" t="n">
-        <v>2316.252859740625</v>
+        <v>178.4809954028057</v>
       </c>
       <c r="H24" t="n">
-        <v>2231.588527385791</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>2233.355914590558</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J24" t="n">
-        <v>2383.002557118213</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K24" t="n">
-        <v>2383.002557118213</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L24" t="n">
-        <v>2877.307316025036</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M24" t="n">
-        <v>3474.685803651587</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N24" t="n">
-        <v>4102.283767206194</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q24" t="n">
-        <v>4654.193497445481</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R24" t="n">
-        <v>4690.833152398593</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="S24" t="n">
-        <v>4572.622366301206</v>
+        <v>2434.850501963388</v>
       </c>
       <c r="T24" t="n">
-        <v>4382.41566002298</v>
+        <v>2244.643795685161</v>
       </c>
       <c r="U24" t="n">
-        <v>4154.387578566165</v>
+        <v>2016.615714228345</v>
       </c>
       <c r="V24" t="n">
-        <v>3919.235470334422</v>
+        <v>1781.463605996603</v>
       </c>
       <c r="W24" t="n">
-        <v>3664.998113606221</v>
+        <v>1527.226249268401</v>
       </c>
       <c r="X24" t="n">
-        <v>3457.146613400688</v>
+        <v>1319.374749062868</v>
       </c>
       <c r="Y24" t="n">
-        <v>3249.386314635734</v>
+        <v>1111.614450297915</v>
       </c>
     </row>
     <row r="25">
@@ -6123,22 +6123,22 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1092.345997432834</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C25" t="n">
-        <v>923.4098145049275</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D25" t="n">
-        <v>773.2931750925917</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E25" t="n">
-        <v>625.3800815101986</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F25" t="n">
-        <v>478.4901340122882</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>311.2940347271681</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H25" t="n">
         <v>175.9033664000583</v>
@@ -6180,19 +6180,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U25" t="n">
-        <v>1977.461080510508</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V25" t="n">
-        <v>1722.776592304621</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W25" t="n">
-        <v>1722.776592304621</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X25" t="n">
-        <v>1494.787041406604</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y25" t="n">
-        <v>1273.994462263074</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="26">
@@ -6214,10 +6214,10 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
         <v>93.81666304797187</v>
@@ -6226,19 +6226,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6314,19 +6314,19 @@
         <v>1072.713683962606</v>
       </c>
       <c r="M27" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N27" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1030.918378293896</v>
+        <v>560.7825789706076</v>
       </c>
       <c r="C28" t="n">
-        <v>861.9821953659887</v>
+        <v>391.8463960427007</v>
       </c>
       <c r="D28" t="n">
-        <v>711.8655559536529</v>
+        <v>241.729756630365</v>
       </c>
       <c r="E28" t="n">
-        <v>563.9524623712598</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="F28" t="n">
-        <v>484.8112968429803</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G28" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6402,34 +6402,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P28" t="n">
-        <v>2327.764848853365</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q28" t="n">
-        <v>2446.963083580265</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2379.917379832667</v>
+        <v>2426.846358063199</v>
       </c>
       <c r="S28" t="n">
-        <v>2197.062545487572</v>
+        <v>2243.991523718104</v>
       </c>
       <c r="T28" t="n">
-        <v>1977.461080510513</v>
+        <v>2024.390058741045</v>
       </c>
       <c r="U28" t="n">
-        <v>1977.461080510513</v>
+        <v>1735.314832085242</v>
       </c>
       <c r="V28" t="n">
-        <v>1722.776592304626</v>
+        <v>1480.630343879355</v>
       </c>
       <c r="W28" t="n">
-        <v>1433.359422267665</v>
+        <v>1191.213173842395</v>
       </c>
       <c r="X28" t="n">
-        <v>1433.359422267665</v>
+        <v>963.2236229443774</v>
       </c>
       <c r="Y28" t="n">
-        <v>1212.566843124135</v>
+        <v>742.4310438008473</v>
       </c>
     </row>
     <row r="29">
@@ -6439,10 +6439,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D29" t="n">
         <v>1590.547811004712</v>
@@ -6451,19 +6451,19 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F29" t="n">
-        <v>793.773653616861</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362685</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H29" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6490,25 +6490,25 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S29" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T29" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="30">
@@ -6548,22 +6548,22 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P30" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q30" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1098.667160263527</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C31" t="n">
-        <v>929.7309773356195</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D31" t="n">
-        <v>779.6143379232838</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E31" t="n">
-        <v>631.7012443408906</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6657,16 +6657,16 @@
         <v>1688.385853854706</v>
       </c>
       <c r="V31" t="n">
-        <v>1688.385853854706</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1398.968683817745</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>1398.968683817745</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>1280.315625093766</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6691,7 +6691,7 @@
         <v>793.7736536168607</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
         <v>93.81666304797187</v>
@@ -6703,16 +6703,16 @@
         <v>378.1925803111712</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
         <v>3640.42229106801</v>
@@ -6791,13 +6791,13 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N33" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O33" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>948.5505208511906</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C34" t="n">
-        <v>779.6143379232838</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="D34" t="n">
-        <v>779.6143379232838</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E34" t="n">
-        <v>631.7012443408906</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F34" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G34" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H34" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S34" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T34" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U34" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V34" t="n">
-        <v>1578.981115722978</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W34" t="n">
-        <v>1578.981115722978</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X34" t="n">
-        <v>1350.99156482496</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y34" t="n">
-        <v>1130.19898568143</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="35">
@@ -6925,22 +6925,22 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J35" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7028,10 +7028,10 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N36" t="n">
-        <v>1670.092171589158</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O36" t="n">
-        <v>2222.001901828445</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
         <v>2553.061288060775</v>
@@ -7071,76 +7071,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>3025.224490384403</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>2856.288307456496</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="D37" t="n">
-        <v>2856.288307456496</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="E37" t="n">
-        <v>2708.375213874103</v>
+        <v>365.9405071576781</v>
       </c>
       <c r="F37" t="n">
-        <v>2561.485266376193</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G37" t="n">
-        <v>2561.485266376193</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H37" t="n">
-        <v>2419.773435218391</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I37" t="n">
-        <v>2337.686731866304</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
-        <v>2417.922750296628</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K37" t="n">
-        <v>2679.612012822167</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L37" t="n">
-        <v>3070.010606998107</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M37" t="n">
-        <v>3492.020309729142</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N37" t="n">
-        <v>3909.43018138915</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O37" t="n">
-        <v>4278.959462098135</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P37" t="n">
-        <v>4571.634917671694</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q37" t="n">
-        <v>4690.833152398593</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>4623.787448650995</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S37" t="n">
-        <v>4623.787448650995</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T37" t="n">
-        <v>4404.185983673937</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>4115.110757018135</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>3860.426268812248</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>3571.009098775287</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>3343.01954787727</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>3122.22696873374</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7162,31 +7162,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7210,13 +7210,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7253,25 +7253,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K39" t="n">
-        <v>175.8744207939072</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L39" t="n">
-        <v>671.2000270096659</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M39" t="n">
-        <v>1268.578514636218</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N39" t="n">
-        <v>1896.176478190825</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O39" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
         <v>2553.061288060775</v>
@@ -7308,16 +7308,16 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1016.58045691144</v>
+        <v>580.8993044876688</v>
       </c>
       <c r="C40" t="n">
-        <v>847.6442739835331</v>
+        <v>411.9631215597619</v>
       </c>
       <c r="D40" t="n">
-        <v>697.5276345711974</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E40" t="n">
-        <v>549.6145409888043</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F40" t="n">
         <v>402.7245934908939</v>
@@ -7356,28 +7356,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R40" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2379.917379832663</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T40" t="n">
-        <v>2191.112710026075</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U40" t="n">
-        <v>2191.112710026075</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V40" t="n">
-        <v>1936.428221820188</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W40" t="n">
-        <v>1647.011051783227</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X40" t="n">
-        <v>1419.02150088521</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y40" t="n">
-        <v>1198.22892174168</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="41">
@@ -7411,28 +7411,28 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P41" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
@@ -7447,13 +7447,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y41" t="n">
         <v>2704.375866615997</v>
@@ -7493,25 +7493,25 @@
         <v>243.4633055756266</v>
       </c>
       <c r="K42" t="n">
-        <v>562.8579153358621</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L42" t="n">
-        <v>1058.183521551621</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M42" t="n">
-        <v>1655.562009178173</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N42" t="n">
-        <v>2283.159972732779</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7545,25 +7545,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>948.5505208511906</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="C43" t="n">
-        <v>779.6143379232838</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D43" t="n">
-        <v>779.6143379232838</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E43" t="n">
-        <v>631.7012443408906</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F43" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G43" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H43" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S43" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U43" t="n">
-        <v>1868.398285759938</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V43" t="n">
-        <v>1868.398285759938</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W43" t="n">
-        <v>1578.981115722978</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X43" t="n">
-        <v>1350.99156482496</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y43" t="n">
-        <v>1130.19898568143</v>
+        <v>983.3403484614387</v>
       </c>
     </row>
     <row r="44">
@@ -7624,46 +7624,46 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H44" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L44" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7681,19 +7681,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="45">
@@ -7733,19 +7733,19 @@
         <v>577.3880777468471</v>
       </c>
       <c r="L45" t="n">
-        <v>577.3880777468471</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M45" t="n">
-        <v>1174.766565373399</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N45" t="n">
-        <v>1802.364528928006</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O45" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q45" t="n">
         <v>2553.061288060775</v>
@@ -7782,19 +7782,19 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>783.5579673960132</v>
+        <v>801.6605733532803</v>
       </c>
       <c r="C46" t="n">
-        <v>614.6217844681063</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="D46" t="n">
-        <v>464.5051450557705</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E46" t="n">
-        <v>464.5051450557705</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F46" t="n">
-        <v>317.6151975578602</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G46" t="n">
         <v>317.6151975578602</v>
@@ -7836,22 +7836,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1907.987318831765</v>
+        <v>1976.192826467915</v>
       </c>
       <c r="V46" t="n">
-        <v>1653.302830625878</v>
+        <v>1721.508338262028</v>
       </c>
       <c r="W46" t="n">
-        <v>1363.885660588917</v>
+        <v>1432.091168225067</v>
       </c>
       <c r="X46" t="n">
-        <v>1135.8961096909</v>
+        <v>1204.10161732705</v>
       </c>
       <c r="Y46" t="n">
-        <v>915.1035305473698</v>
+        <v>983.30903818352</v>
       </c>
     </row>
   </sheetData>
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>6.922421112517554</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,13 +23430,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23469,13 +23469,13 @@
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>216.1389255780003</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
@@ -23655,7 +23655,7 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23664,7 +23664,7 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
@@ -23673,7 +23673,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>145.6085800303779</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23715,13 +23715,13 @@
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>52.83923663127399</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>111.8681131589324</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23943,7 +23943,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23952,13 +23952,13 @@
         <v>0</v>
       </c>
       <c r="W19" t="n">
-        <v>135.850318211895</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -24144,10 +24144,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>5.506781756523552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24174,16 +24174,16 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>0</v>
+        <v>179.1866975757051</v>
       </c>
       <c r="V22" t="n">
         <v>252.137643323828</v>
@@ -24369,19 +24369,19 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>138.4949402405078</v>
       </c>
       <c r="H25" t="n">
-        <v>6.257951202385129</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
@@ -24420,13 +24420,13 @@
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
       </c>
       <c r="W25" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X25" t="n">
         <v>0</v>
@@ -24612,16 +24612,16 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>67.0712941499345</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>46.45968844823106</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24657,7 +24657,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24666,7 +24666,7 @@
         <v>0</v>
       </c>
       <c r="X28" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>0</v>
+        <v>57.22910392194228</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24897,16 +24897,16 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
       </c>
       <c r="X31" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>101.1181252153553</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>123.7828069546817</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25092,10 +25092,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,7 +25122,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
@@ -25134,10 +25134,10 @@
         <v>0</v>
       </c>
       <c r="V34" t="n">
-        <v>143.8269525734169</v>
+        <v>0</v>
       </c>
       <c r="W34" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X34" t="n">
         <v>0</v>
@@ -25311,10 +25311,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>83.79952661609342</v>
+        <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
         <v>148.6154730182124</v>
@@ -25323,16 +25323,16 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>41.54258064659095</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25362,7 +25362,7 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
         <v>0</v>
@@ -25554,13 +25554,13 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>139.469330230033</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
         <v>0</v>
@@ -25596,16 +25596,16 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
-        <v>30.48882721876595</v>
+        <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
         <v>0</v>
@@ -25785,13 +25785,13 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>0</v>
+        <v>32.90770736550135</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25806,7 +25806,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25842,10 +25842,10 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>178.2123075861799</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W43" t="n">
         <v>0</v>
@@ -25854,7 +25854,7 @@
         <v>0</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -26022,22 +26022,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>49.60187266209422</v>
+        <v>0</v>
       </c>
       <c r="C46" t="n">
         <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G46" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
         <v>0</v>
@@ -26076,10 +26076,10 @@
         <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>0</v>
+        <v>284.9289028870768</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>821785.2548503018</v>
+        <v>821785.2548503019</v>
       </c>
     </row>
     <row r="7">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="8">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="14">
@@ -26313,49 +26313,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982124</v>
+        <v>615781.3273982126</v>
       </c>
       <c r="C2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982125</v>
+        <v>615781.3273982122</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675042</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675041</v>
+      </c>
+      <c r="G2" t="n">
         <v>605359.9497675046</v>
       </c>
-      <c r="F2" t="n">
-        <v>605359.9497675045</v>
-      </c>
-      <c r="G2" t="n">
-        <v>605359.9497675044</v>
-      </c>
       <c r="H2" t="n">
-        <v>605359.9497675044</v>
+        <v>605359.949767504</v>
       </c>
       <c r="I2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.949767504</v>
       </c>
       <c r="J2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.949767504</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.949767504</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675046</v>
+        <v>605359.9497675041</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.9497675045</v>
+        <v>605359.949767504</v>
       </c>
       <c r="O2" t="n">
+        <v>605359.949767504</v>
+      </c>
+      <c r="P2" t="n">
         <v>605359.9497675041</v>
-      </c>
-      <c r="P2" t="n">
-        <v>605359.9497675042</v>
       </c>
     </row>
     <row r="3">
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208456</v>
+        <v>591356.9025208454</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253116</v>
+        <v>270592.3620253128</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231943</v>
+        <v>115410.0540231924</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742646</v>
+        <v>601443.2075742651</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26389,22 +26389,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>49064.9447285447</v>
+        <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881953</v>
+        <v>62913.63765881981</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.25362197512</v>
+        <v>27875.2536219748</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.3805515979</v>
+        <v>157146.380551598</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>5.200846139448641e-11</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26417,16 +26417,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341298</v>
+        <v>278536.5648341299</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263464</v>
+        <v>206604.4229263461</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888975</v>
+        <v>174202.9900888977</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687966</v>
       </c>
       <c r="F4" t="n">
         <v>15436.64000687967</v>
@@ -26438,13 +26438,13 @@
         <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687977</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687975</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
         <v>15436.64000687967</v>
@@ -26459,7 +26459,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161359</v>
+        <v>56985.80041161358</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936813</v>
+        <v>76435.73471936822</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.0818558723</v>
+        <v>85199.08185587224</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-311097.9403683767</v>
+        <v>-311097.9403683763</v>
       </c>
       <c r="C6" t="n">
-        <v>62148.80772718645</v>
+        <v>62148.80772718566</v>
       </c>
       <c r="D6" t="n">
-        <v>240969.2014302484</v>
+        <v>240969.2014302498</v>
       </c>
       <c r="E6" t="n">
-        <v>-112642.4276375468</v>
+        <v>-112989.8068919045</v>
       </c>
       <c r="F6" t="n">
-        <v>488800.7799367179</v>
+        <v>488453.4006823603</v>
       </c>
       <c r="G6" t="n">
-        <v>488800.7799367175</v>
+        <v>488453.4006823608</v>
       </c>
       <c r="H6" t="n">
-        <v>488800.7799367175</v>
+        <v>488453.4006823602</v>
       </c>
       <c r="I6" t="n">
-        <v>488800.7799367176</v>
+        <v>488453.4006823602</v>
       </c>
       <c r="J6" t="n">
-        <v>439735.835208173</v>
+        <v>439388.4559538155</v>
       </c>
       <c r="K6" t="n">
-        <v>425887.1422778979</v>
+        <v>425539.7630235407</v>
       </c>
       <c r="L6" t="n">
-        <v>460925.5263147427</v>
+        <v>460578.1470603854</v>
       </c>
       <c r="M6" t="n">
-        <v>331654.3993851198</v>
+        <v>331307.0201307624</v>
       </c>
       <c r="N6" t="n">
-        <v>488800.7799367176</v>
+        <v>488453.4006823602</v>
       </c>
       <c r="O6" t="n">
-        <v>488800.7799367173</v>
+        <v>488453.4006823602</v>
       </c>
       <c r="P6" t="n">
-        <v>488800.7799367174</v>
+        <v>488453.4006823603</v>
       </c>
     </row>
   </sheetData>
@@ -26709,10 +26709,10 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>758.8996292950611</v>
+        <v>758.899629295062</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376848</v>
+        <v>853.7106645376841</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594705</v>
+        <v>431.9757039594715</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261638</v>
+        <v>542.1149567261633</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26931,7 +26931,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26946,7 +26946,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129048</v>
+        <v>548.4699409129047</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821563</v>
+        <v>210.4296883821573</v>
       </c>
       <c r="D3" t="n">
-        <v>94.81103524262369</v>
+        <v>94.8110352426221</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039892</v>
+        <v>514.2648358039896</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931504</v>
+        <v>244.4501167931515</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666933</v>
+        <v>110.1392527666918</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734846</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931504</v>
+        <v>244.4501167931515</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666933</v>
+        <v>110.1392527666918</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734847</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27168,7 +27168,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.5255871663201</v>
+        <v>187.52558716632</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931504</v>
+        <v>244.4501167931515</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666933</v>
+        <v>110.1392527666918</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734846</v>
+        <v>630.5933313734851</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>285.8671284995523</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>177.7473046046875</v>
       </c>
       <c r="D2" t="n">
-        <v>167.1574544543629</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>381.9303700722618</v>
+        <v>194.4047829059418</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27396,7 +27396,7 @@
         <v>400</v>
       </c>
       <c r="H2" t="n">
-        <v>142.94539392563</v>
+        <v>316.8938261062223</v>
       </c>
       <c r="I2" t="n">
         <v>125.4713171199747</v>
@@ -27426,7 +27426,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666373</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>198.7123514897335</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27469,7 +27469,7 @@
         <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>136.1637893657753</v>
@@ -27478,10 +27478,10 @@
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409147</v>
+        <v>58.90455890409149</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>15.37922103265838</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,10 +27505,10 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846316</v>
+        <v>72.43289562846319</v>
       </c>
       <c r="S3" t="n">
-        <v>0</v>
+        <v>149.7702446909496</v>
       </c>
       <c r="T3" t="n">
         <v>195.4095977920012</v>
@@ -27517,16 +27517,16 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>45.27499998310518</v>
+        <v>172.6167407650333</v>
       </c>
       <c r="W3" t="n">
-        <v>251.6949831609196</v>
+        <v>64.1693959945996</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715738</v>
+        <v>18.24739803715747</v>
       </c>
       <c r="Y3" t="n">
-        <v>165.5791027231362</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27554,16 +27554,16 @@
         <v>167.0019352027142</v>
       </c>
       <c r="H4" t="n">
-        <v>153.4336708318196</v>
+        <v>101.217724577385</v>
       </c>
       <c r="I4" t="n">
         <v>125.7072197708667</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825414</v>
+        <v>57.06999962825415</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>14.1043098940285</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709382</v>
+        <v>18.10760906709383</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159722</v>
+        <v>68.68604055159723</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27599,7 +27599,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>248.4113619761848</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -27615,28 +27615,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>118.5124091839306</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>400</v>
+        <v>218.5897691266867</v>
       </c>
       <c r="H5" t="n">
         <v>308.2302560714735</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760048</v>
+        <v>92.85788772760034</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,13 +27666,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372556</v>
+        <v>139.4987618372555</v>
       </c>
       <c r="T5" t="n">
         <v>209.7407415149288</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.1015846853496</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27684,7 +27684,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27694,28 +27694,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>166.5331836498673</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
-        <v>172.7084989883157</v>
+        <v>0</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
       </c>
       <c r="E6" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>61.42272763000399</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.47037835246132</v>
+        <v>96.4703783524613</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937518</v>
+        <v>43.32085084937511</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,7 +27742,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>0</v>
+        <v>44.33060630074789</v>
       </c>
       <c r="S6" t="n">
         <v>141.3629830843606</v>
@@ -27751,13 +27751,13 @@
         <v>193.5852120974427</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>225.8339906239991</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>55.34430664941272</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27779,13 +27779,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>108.5621003513597</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
         <v>166.6224718302218</v>
@@ -27794,10 +27794,10 @@
         <v>150.0598964836597</v>
       </c>
       <c r="I7" t="n">
-        <v>114.295721259913</v>
+        <v>114.2957212599129</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304055</v>
+        <v>30.24193919304044</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589162</v>
+        <v>36.91115760589147</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166224</v>
+        <v>115.7603165166223</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130603</v>
+        <v>200.1672441130602</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
@@ -27833,13 +27833,13 @@
         <v>286.2443834913144</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>145.9389153765135</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27852,10 +27852,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -27867,13 +27867,13 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>78.1636065770829</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,10 +27903,10 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>130.8133087092504</v>
+        <v>11.82782152419335</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>208.0722578696039</v>
       </c>
       <c r="U8" t="n">
         <v>251.0710926941158</v>
@@ -27918,10 +27918,10 @@
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>328.0579182927031</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -27937,22 +27937,22 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>147.4450655646388</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470352</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>94.50081326185514</v>
       </c>
       <c r="I9" t="n">
-        <v>0</v>
+        <v>36.29946757904885</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27982,22 +27982,22 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>137.5750138932992</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>112.3323300279997</v>
+        <v>70.00539589882683</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>0</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -28016,13 +28016,13 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>166.4515011109318</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923916</v>
+        <v>18.15430933923925</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425545</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656385</v>
+        <v>108.0728512656386</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>197.1876907596159</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28070,13 +28070,13 @@
         <v>286.2350578157167</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>202.884040474999</v>
+        <v>216.6238813635245</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -29274,25 +29274,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -29325,25 +29325,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -29474,7 +29474,7 @@
         <v>0</v>
       </c>
       <c r="P28" t="n">
-        <v>4.574577583490029e-12</v>
+        <v>0</v>
       </c>
       <c r="Q28" t="n">
         <v>0</v>
@@ -29511,25 +29511,25 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="D29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29562,25 +29562,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>9.738519058854523e-13</v>
+        <v>0</v>
       </c>
       <c r="T29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="U29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>6.501057674310801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -31047,28 +31047,28 @@
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043123</v>
+        <v>85.00457245043121</v>
       </c>
       <c r="J2" t="n">
         <v>187.1384950655544</v>
       </c>
       <c r="K2" t="n">
-        <v>280.472093452864</v>
+        <v>280.4720934528639</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672894</v>
+        <v>347.9504329672893</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470275</v>
+        <v>387.1618995470274</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470026</v>
+        <v>393.4265838470025</v>
       </c>
       <c r="O2" t="n">
-        <v>371.5015668622681</v>
+        <v>371.501566862268</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244296</v>
+        <v>317.0679923244295</v>
       </c>
       <c r="Q2" t="n">
         <v>238.1048576151093</v>
@@ -31077,13 +31077,13 @@
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619225</v>
+        <v>50.24425639619223</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924584</v>
+        <v>9.651968507924582</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061602</v>
+        <v>0.1763923428061601</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,13 +31120,13 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435305</v>
+        <v>1.179727797435304</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590852</v>
+        <v>40.61782109590851</v>
       </c>
       <c r="J3" t="n">
         <v>111.4584056340083</v>
@@ -31138,7 +31138,7 @@
         <v>256.1509851405033</v>
       </c>
       <c r="M3" t="n">
-        <v>298.9161177975331</v>
+        <v>298.916117797533</v>
       </c>
       <c r="N3" t="n">
         <v>306.8275379829655</v>
@@ -31147,22 +31147,22 @@
         <v>280.6872536292674</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628873</v>
+        <v>225.2762668628872</v>
       </c>
       <c r="Q3" t="n">
         <v>150.5912184936715</v>
       </c>
       <c r="R3" t="n">
-        <v>73.2466083355008</v>
+        <v>73.24660833550077</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.755130902820371</v>
+        <v>4.75513090282037</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390166</v>
+        <v>0.07761367088390164</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445823</v>
+        <v>0.9890441557445822</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620019</v>
+        <v>8.793501675620018</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639163</v>
+        <v>29.74325515639162</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114197</v>
+        <v>69.92542181114196</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31223,25 +31223,25 @@
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592434</v>
+        <v>139.7968957592433</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784863</v>
+        <v>82.81896107784861</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647912</v>
+        <v>44.47102176647911</v>
       </c>
       <c r="S4" t="n">
         <v>17.23634224147603</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181396</v>
+        <v>4.225915938181395</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061364</v>
+        <v>0.05394786304061363</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085671</v>
+        <v>3.050852781085674</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429363</v>
+        <v>31.24454604429367</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428054</v>
+        <v>117.6180018428056</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286702</v>
+        <v>258.9373162286705</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520267</v>
+        <v>388.0799144520271</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511774</v>
+        <v>481.4474502511779</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968097</v>
+        <v>535.7030533968102</v>
       </c>
       <c r="N5" t="n">
-        <v>544.3712888610694</v>
+        <v>544.37128886107</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191486</v>
+        <v>514.0343715191493</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860961</v>
+        <v>438.7164434860966</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634655</v>
+        <v>329.4577782634659</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098729</v>
+        <v>191.6431310098731</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898978</v>
+        <v>69.52130774898987</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920253</v>
+        <v>13.35510804920255</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868536</v>
+        <v>0.2440682224868539</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030886</v>
+        <v>1.632350146030888</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403514</v>
+        <v>15.76506588403516</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062481</v>
+        <v>56.20152915062489</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475935</v>
+        <v>154.2212916475937</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316629</v>
+        <v>263.5887514316632</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721887</v>
+        <v>354.4276051721891</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658082</v>
+        <v>413.6002979658087</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468663</v>
+        <v>424.5470671468668</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374451</v>
+        <v>388.3776244374455</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872488</v>
+        <v>311.7072835872492</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547496</v>
+        <v>208.3680642547499</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632159</v>
+        <v>101.3488976632161</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947719</v>
+        <v>30.32018801947722</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378877</v>
+        <v>6.579516597378885</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757162</v>
+        <v>0.1073914569757164</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236995</v>
+        <v>1.368507528236997</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377984</v>
+        <v>12.16727602377985</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734529</v>
+        <v>41.15475366734534</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635556</v>
+        <v>96.75348224635567</v>
       </c>
       <c r="K7" t="n">
-        <v>158.99569282608</v>
+        <v>158.9956928260802</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162529</v>
+        <v>203.4597465162532</v>
       </c>
       <c r="M7" t="n">
-        <v>214.5197755399137</v>
+        <v>214.519775539914</v>
       </c>
       <c r="N7" t="n">
-        <v>209.4189747528487</v>
+        <v>209.418974752849</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275346</v>
+        <v>193.4323186275349</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650514998</v>
+        <v>165.5147650515</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235542</v>
+        <v>114.5938440235544</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054707</v>
+        <v>61.53307486054714</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391199</v>
+        <v>23.84935392391202</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830797</v>
+        <v>5.847259438830804</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656346</v>
+        <v>0.07464586517656356</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508278</v>
+        <v>3.432002671508275</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958416</v>
+        <v>35.14799735958413</v>
       </c>
       <c r="I8" t="n">
-        <v>132.312282993323</v>
+        <v>132.3122829933229</v>
       </c>
       <c r="J8" t="n">
-        <v>291.286936740926</v>
+        <v>291.2869367409257</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258715</v>
+        <v>436.5636098258711</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840431</v>
+        <v>541.5957615840426</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934783</v>
+        <v>602.6296390934779</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839013</v>
+        <v>612.3808166839008</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190908</v>
+        <v>578.2538401190903</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662302</v>
+        <v>493.5262741662298</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928398</v>
+        <v>370.6176784928395</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141321</v>
+        <v>215.5855378141319</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699496</v>
+        <v>78.20676087699491</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452749</v>
+        <v>15.02359169452748</v>
       </c>
       <c r="U8" t="n">
-        <v>0.2745602137206622</v>
+        <v>0.274560213720662</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175398</v>
+        <v>1.836283316175396</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464134</v>
+        <v>17.73463097464133</v>
       </c>
       <c r="I9" t="n">
-        <v>63.2229124209512</v>
+        <v>63.22291242095115</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076063</v>
+        <v>173.4885040076062</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913579</v>
+        <v>296.5194861913577</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616801</v>
+        <v>398.7070419616798</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730381</v>
+        <v>465.2723121730378</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152847</v>
+        <v>477.5866858152843</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884509</v>
+        <v>436.8985133884505</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475634</v>
+        <v>350.6495746475632</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349508</v>
+        <v>234.3999545349506</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867497</v>
+        <v>114.0106430867496</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053861</v>
+        <v>34.10815721053859</v>
       </c>
       <c r="T9" t="n">
-        <v>7.40151038405785</v>
+        <v>7.401510384057843</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062762</v>
+        <v>0.1208081129062761</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526972</v>
+        <v>1.539478247526971</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619436</v>
+        <v>13.68736114619435</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017478</v>
+        <v>46.29630948017475</v>
       </c>
       <c r="J10" t="n">
         <v>108.8411121001569</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490428</v>
+        <v>178.8593818490426</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368737</v>
+        <v>228.8784296368736</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282508</v>
+        <v>241.3202129282506</v>
       </c>
       <c r="N10" t="n">
-        <v>235.582157642014</v>
+        <v>235.5821576420139</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595398</v>
+        <v>217.5982526595396</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099894</v>
+        <v>186.1928964099892</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451904</v>
+        <v>128.9103103451903</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153094</v>
+        <v>69.22054011153089</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735641</v>
+        <v>26.82890727735639</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978881</v>
+        <v>6.577770693978875</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419859</v>
+        <v>0.08397154077419852</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,7 +31752,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H11" t="n">
         <v>56.32071997135341</v>
@@ -31764,31 +31764,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S11" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
         <v>24.07361910651528</v>
@@ -31831,10 +31831,10 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H12" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
         <v>99.52238</v>
@@ -31843,22 +31843,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>248.0319961154043</v>
       </c>
       <c r="L12" t="n">
-        <v>248.7449369209194</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,13 +31867,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U12" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31913,25 +31913,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J13" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N13" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
         <v>348.6767717920058</v>
@@ -31940,19 +31940,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q13" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R13" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U13" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -32074,7 +32074,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J15" t="n">
         <v>277.9958514420755</v>
@@ -32086,16 +32086,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M15" t="n">
-        <v>444.2274915982894</v>
+        <v>652.0478969157701</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O15" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32232,7 +32232,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J17" t="n">
         <v>466.7546155663283</v>
@@ -32311,13 +32311,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J18" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
         <v>638.8832749473072</v>
@@ -32326,19 +32326,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>336.3457189021236</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32548,13 +32548,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J21" t="n">
-        <v>247.3820194983584</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
         <v>638.8832749473072</v>
@@ -32563,19 +32563,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32785,16 +32785,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>637.8521160493917</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
         <v>745.5466476862121</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -32812,7 +32812,7 @@
         <v>139.9817740860215</v>
       </c>
       <c r="R24" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
         <v>54.65449286742438</v>
@@ -33034,22 +33034,22 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>730.8697159579444</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33268,7 +33268,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
         <v>745.5466476862121</v>
@@ -33277,16 +33277,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>200.3460366764704</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R30" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33511,16 +33511,16 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>370.9642309107746</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
         <v>145.679503963964</v>
@@ -33654,7 +33654,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I35" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J35" t="n">
         <v>466.7546155663283</v>
@@ -33666,7 +33666,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175679</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33748,13 +33748,13 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P36" t="n">
-        <v>468.3778278510275</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
         <v>139.9817740860215</v>
@@ -33891,7 +33891,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I38" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
         <v>466.7546155663283</v>
@@ -33973,10 +33973,10 @@
         <v>99.52238</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>220.7280629601522</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
         <v>638.8832749473072</v>
@@ -33988,13 +33988,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
         <v>145.679503963964</v>
@@ -34213,7 +34213,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>460.4622569139909</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
@@ -34225,16 +34225,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34365,7 +34365,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34453,7 +34453,7 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
         <v>745.5466476862121</v>
@@ -34462,13 +34462,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>237.3557891543625</v>
+        <v>400.5469039565762</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R45" t="n">
         <v>145.679503963964</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.092590538868137</v>
+        <v>6.09259053886808</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788344</v>
+        <v>60.38224240788338</v>
       </c>
       <c r="L2" t="n">
         <v>112.1840179973021</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197548</v>
+        <v>156.8156663197547</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504117</v>
+        <v>164.0135202504116</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405814</v>
+        <v>141.4033554405813</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656916001</v>
+        <v>85.83499656915996</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065984</v>
+        <v>15.79916774065978</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781475</v>
+        <v>52.65872908781472</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606292</v>
+        <v>117.5966053606291</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755148</v>
+        <v>156.7820838755147</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996322</v>
+        <v>175.4858258996321</v>
       </c>
       <c r="O3" t="n">
         <v>138.091009184823</v>
       </c>
       <c r="P3" t="n">
-        <v>91.30185944855702</v>
+        <v>91.301859448557</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440765002</v>
+        <v>10.60944440764999</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.15921574646083</v>
+        <v>12.1592157464608</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061158</v>
+        <v>16.11138312061155</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520832</v>
+        <v>23.66518529520829</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400581</v>
+        <v>1.340357307400552</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198388</v>
+        <v>77.89141170198417</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070461</v>
+        <v>167.9900634070466</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811901</v>
+        <v>245.6810352811907</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695369</v>
+        <v>305.3568201695375</v>
       </c>
       <c r="N5" t="n">
-        <v>314.9582252644785</v>
+        <v>314.958225264479</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974619</v>
+        <v>283.9361600974626</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308266</v>
+        <v>207.4834477308271</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.152088389016</v>
+        <v>107.1520883890164</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092685</v>
+        <v>27.38366498092702</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573039</v>
+        <v>125.7473124573042</v>
       </c>
       <c r="L6" t="n">
-        <v>215.8732253923146</v>
+        <v>215.873225392315</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437899</v>
+        <v>271.4662640437904</v>
       </c>
       <c r="N6" t="n">
-        <v>293.205355063533</v>
+        <v>293.2053550635335</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930007</v>
+        <v>245.7813799930011</v>
       </c>
       <c r="P6" t="n">
-        <v>177.7328761729186</v>
+        <v>177.732876172919</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872812</v>
+        <v>68.38629016872838</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554458</v>
+        <v>29.98243465554478</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501466</v>
+        <v>68.57507023501492</v>
       </c>
       <c r="M7" t="n">
-        <v>75.59399159230864</v>
+        <v>75.5939915923089</v>
       </c>
       <c r="N7" t="n">
-        <v>81.7334302876155</v>
+        <v>81.73343028761576</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569185</v>
+        <v>54.97578017569208</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235219</v>
+        <v>27.78676100235239</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142397</v>
+        <v>110.2410322142395</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808909</v>
+        <v>216.4737587808906</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140559</v>
+        <v>305.8293466140554</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662056</v>
+        <v>372.2834058662052</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873104</v>
+        <v>382.9677530873099</v>
       </c>
       <c r="O8" t="n">
-        <v>348.155628697404</v>
+        <v>348.1556286974036</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109606</v>
+        <v>262.2932784109602</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.3119886183904</v>
+        <v>148.31198861839</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.65087734093964</v>
+        <v>46.6508773409395</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169989</v>
+        <v>158.6780472169987</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818059</v>
+        <v>260.1526621818056</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510198</v>
+        <v>323.1382782510195</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319514</v>
+        <v>346.2449737319509</v>
       </c>
       <c r="O9" t="n">
-        <v>294.3022689440064</v>
+        <v>294.302268944006</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332332</v>
+        <v>216.6751672332329</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892926</v>
+        <v>94.41818044892906</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850738</v>
+        <v>49.84612367850724</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563545</v>
+        <v>93.99375335563528</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806457</v>
+        <v>102.3944289806455</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767808</v>
+        <v>107.8966131767807</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769699</v>
+        <v>79.14171420769682</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084179</v>
+        <v>48.46489236084162</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,34 +35406,34 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J11" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L11" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N11" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P11" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R11" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35491,22 +35491,22 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>110.1905571410453</v>
       </c>
       <c r="L12" t="n">
-        <v>110.1905571410452</v>
+        <v>0</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,22 +35567,22 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K13" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L13" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N13" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P13" t="n">
         <v>295.631773306625</v>
@@ -35722,7 +35722,7 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J15" t="n">
         <v>151.1582247754088</v>
@@ -35734,16 +35734,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M15" t="n">
-        <v>302.093457676271</v>
+        <v>509.9138629937518</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O15" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35880,7 +35880,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J17" t="n">
         <v>285.708711039642</v>
@@ -35959,13 +35959,13 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
         <v>500.328895167433</v>
@@ -35974,19 +35974,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>205.0040068187903</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36196,13 +36196,13 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>120.5443928316917</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
         <v>500.328895167433</v>
@@ -36211,19 +36211,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36433,16 +36433,16 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>499.2977362695175</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
         <v>603.4126137641938</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36460,7 +36460,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36682,22 +36682,22 @@
         <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>588.7356820359261</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36770,7 +36770,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P28" t="n">
-        <v>295.6317733066295</v>
+        <v>295.631773306625</v>
       </c>
       <c r="Q28" t="n">
         <v>120.4022572998984</v>
@@ -36916,7 +36916,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
@@ -36925,16 +36925,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>57.74979223202591</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R30" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37159,16 +37159,16 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>228.3679864663302</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37302,7 +37302,7 @@
         <v>0</v>
       </c>
       <c r="I35" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J35" t="n">
         <v>285.708711039642</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37396,13 +37396,13 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P36" t="n">
-        <v>334.4034204366973</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
         <v>0</v>
@@ -37539,7 +37539,7 @@
         <v>0</v>
       </c>
       <c r="I38" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
         <v>285.708711039642</v>
@@ -37621,10 +37621,10 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>82.88662398579324</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
         <v>500.328895167433</v>
@@ -37636,13 +37636,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37861,7 +37861,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>322.6208179396319</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
@@ -37873,16 +37873,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -38013,7 +38013,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38101,7 +38101,7 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
         <v>603.4126137641938</v>
@@ -38110,13 +38110,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>94.75954470991805</v>
+        <v>257.9506595121318</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>

--- a/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_30.xlsx
+++ b/Outputs/1. Budget/Grid Search/Output Files/1500000/Output_24_30.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.01</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>2250016.036350356</v>
+        <v>2251776.566653144</v>
       </c>
     </row>
     <row r="7">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283188</v>
+        <v>416855.1052283193</v>
       </c>
     </row>
     <row r="9">
@@ -658,16 +658,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>96.86671316392828</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="F2" t="n">
         <v>6.876045741711437</v>
@@ -706,7 +706,7 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>77.08171901666375</v>
+        <v>77.0817190166637</v>
       </c>
       <c r="S2" t="n">
         <v>158.7758131900531</v>
@@ -715,7 +715,7 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>96.86671316392879</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -727,7 +727,7 @@
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>187.5255871663202</v>
       </c>
     </row>
     <row r="3">
@@ -740,19 +740,19 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>68.99325526739331</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>136.1637893657753</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>72.43289562846314</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -797,13 +797,13 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>60.183846384392</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="X3" t="n">
-        <v>187.52558716632</v>
+        <v>0</v>
       </c>
       <c r="Y3" t="n">
         <v>0</v>
@@ -831,10 +831,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>52.2159462544348</v>
       </c>
       <c r="H4" t="n">
-        <v>52.21594625443453</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
         <v>365.2728917710076</v>
@@ -904,13 +904,13 @@
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>193.6621156073627</v>
+        <v>12.25188473404939</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -943,7 +943,7 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>23.94240680425898</v>
+        <v>23.94240680425983</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>131.4546711819291</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
@@ -1037,7 +1037,7 @@
         <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>196.3506765115069</v>
+        <v>196.3506765114959</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -1059,16 +1059,16 @@
         <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>40.05337266685267</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>146.4339626465692</v>
+        <v>19.86486348319501</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.6224718302218</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.87073484362677</v>
@@ -1153,7 +1153,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>78.16360657708299</v>
+        <v>18.32574259789326</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1183,16 +1183,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>118.9854871850571</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.0710926941158</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
@@ -1220,13 +1220,13 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>135.5072338470353</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
         <v>0</v>
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>31.66886087721431</v>
+        <v>27.25699312606649</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -1268,10 +1268,10 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>155.8151780692417</v>
+        <v>225.8205739680685</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W9" t="n">
         <v>251.6949831609196</v>
@@ -1293,7 +1293,7 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>31.68046530976962</v>
       </c>
       <c r="D10" t="n">
         <v>148.6154730182124</v>
@@ -1335,7 +1335,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>22.59469128425553</v>
+        <v>0</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -1356,7 +1356,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>9.085774025512624</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1420,7 +1420,7 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
@@ -1429,7 +1429,7 @@
         <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
-        <v>327.7522584701349</v>
+        <v>327.7522584701328</v>
       </c>
       <c r="W11" t="n">
         <v>349.240968717413</v>
@@ -1466,7 +1466,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H12" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
@@ -1527,28 +1527,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>141.6930519056948</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1575,7 +1575,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1590,13 +1590,13 @@
         <v>252.137643323828</v>
       </c>
       <c r="W13" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>74.75770077867777</v>
       </c>
     </row>
     <row r="14">
@@ -1657,7 +1657,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
@@ -1669,13 +1669,13 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W14" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X14" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="15">
@@ -1703,7 +1703,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H15" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
@@ -1764,10 +1764,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>179.8319801819373</v>
+        <v>160.9359580870419</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
         <v>148.6154730182124</v>
@@ -1782,10 +1782,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,10 +1815,10 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>71.79687029691033</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
         <v>286.1844743892441</v>
@@ -1894,7 +1894,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695439</v>
       </c>
       <c r="T17" t="n">
         <v>199.0222304576161</v>
@@ -1906,7 +1906,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W17" t="n">
-        <v>349.2409687174127</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X17" t="n">
         <v>369.731100678469</v>
@@ -1940,7 +1940,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H18" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
@@ -2004,7 +2004,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
         <v>148.6154730182124</v>
@@ -2019,10 +2019,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>28.42659968729146</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2049,7 +2049,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
         <v>181.0262860016446</v>
@@ -2061,16 +2061,16 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V19" t="n">
-        <v>252.137643323828</v>
+        <v>26.07046444232026</v>
       </c>
       <c r="W19" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X19" t="n">
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2131,10 +2131,10 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576154</v>
       </c>
       <c r="U20" t="n">
         <v>250.9057009881286</v>
@@ -2259,7 +2259,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2289,16 +2289,16 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U22" t="n">
-        <v>106.997776813539</v>
+        <v>172.0260335000785</v>
       </c>
       <c r="V22" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W22" t="n">
         <v>286.522998336591</v>
@@ -2332,7 +2332,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G23" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H23" t="n">
         <v>283.1540821444137</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2490,13 +2490,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>27.02919805176109</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>83.06560892428168</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2569,7 +2569,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2712,28 +2712,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>63.1628130171261</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2760,7 +2760,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>19.91555826189063</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
         <v>181.0262860016446</v>
@@ -2848,7 +2848,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U29" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V29" t="n">
         <v>327.7522584701349</v>
@@ -2952,16 +2952,16 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
-        <v>110.0177171766856</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2970,7 +2970,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2997,16 +2997,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>0</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3018,7 +3018,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>173.2052365248845</v>
       </c>
     </row>
     <row r="32">
@@ -3189,25 +3189,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D34" t="n">
-        <v>24.83266606353065</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>11.56087338713365</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3234,13 +3234,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S34" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T34" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U34" t="n">
         <v>286.1844743892441</v>
@@ -3316,7 +3316,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3429,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F37" t="n">
-        <v>103.8784673763403</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3471,13 +3471,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>217.4054503272883</v>
+        <v>53.08838020946239</v>
       </c>
       <c r="U37" t="n">
         <v>286.1844743892441</v>
@@ -3553,10 +3553,10 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U38" t="n">
         <v>250.9057009881286</v>
@@ -3666,19 +3666,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D40" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
@@ -3711,7 +3711,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>181.0262860016446</v>
+        <v>55.5207962406042</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3793,10 +3793,10 @@
         <v>83.7025149569553</v>
       </c>
       <c r="T41" t="n">
-        <v>199.0222304576161</v>
+        <v>199.0222304576164</v>
       </c>
       <c r="U41" t="n">
-        <v>250.9057009881284</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V41" t="n">
         <v>327.7522584701349</v>
@@ -3897,10 +3897,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>134.3391137331265</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
         <v>148.6154730182124</v>
@@ -3912,10 +3912,10 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G43" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3945,7 +3945,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S43" t="n">
         <v>181.0262860016446</v>
@@ -3963,10 +3963,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>33.828918917875</v>
       </c>
       <c r="Y43" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="44">
@@ -3994,7 +3994,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H44" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444115</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695531</v>
       </c>
       <c r="T44" t="n">
-        <v>199.0222304576164</v>
+        <v>199.0222304576161</v>
       </c>
       <c r="U44" t="n">
         <v>250.9057009881286</v>
@@ -4073,7 +4073,7 @@
         <v>134.4010792945512</v>
       </c>
       <c r="H45" t="n">
-        <v>83.81768903128545</v>
+        <v>83.81768903128547</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
@@ -4137,13 +4137,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>110.0177171766856</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4155,7 +4155,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4182,7 +4182,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4191,7 +4191,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U46" t="n">
-        <v>1.255571502167365</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
         <v>252.137643323828</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>414.017252331295</v>
+        <v>224.5974673148104</v>
       </c>
       <c r="C2" t="n">
-        <v>224.5974673148102</v>
+        <v>224.5974673148104</v>
       </c>
       <c r="D2" t="n">
-        <v>224.5974673148102</v>
+        <v>224.5974673148104</v>
       </c>
       <c r="E2" t="n">
-        <v>35.17768229832528</v>
+        <v>35.17768229832529</v>
       </c>
       <c r="F2" t="n">
-        <v>28.23218154912181</v>
+        <v>28.23218154912183</v>
       </c>
       <c r="G2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I2" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J2" t="n">
-        <v>21.03371160678478</v>
+        <v>21.03371160678489</v>
       </c>
       <c r="K2" t="n">
-        <v>80.81213159058944</v>
+        <v>80.81213159058962</v>
       </c>
       <c r="L2" t="n">
-        <v>191.8743094079185</v>
+        <v>191.8743094079188</v>
       </c>
       <c r="M2" t="n">
-        <v>347.1218190644755</v>
+        <v>347.121819064476</v>
       </c>
       <c r="N2" t="n">
-        <v>509.495204112383</v>
+        <v>509.4952041123834</v>
       </c>
       <c r="O2" t="n">
-        <v>649.4845259985585</v>
+        <v>649.4845259985592</v>
       </c>
       <c r="P2" t="n">
-        <v>734.4611726020269</v>
+        <v>734.4611726020275</v>
       </c>
       <c r="Q2" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R2" t="n">
-        <v>672.2420264262257</v>
+        <v>672.2420264262266</v>
       </c>
       <c r="S2" t="n">
-        <v>511.8624171433438</v>
+        <v>511.8624171433447</v>
       </c>
       <c r="T2" t="n">
-        <v>511.8624171433438</v>
+        <v>511.8624171433447</v>
       </c>
       <c r="U2" t="n">
-        <v>511.8624171433438</v>
+        <v>414.0172523312954</v>
       </c>
       <c r="V2" t="n">
-        <v>511.8624171433438</v>
+        <v>414.0172523312954</v>
       </c>
       <c r="W2" t="n">
-        <v>511.8624171433438</v>
+        <v>414.0172523312954</v>
       </c>
       <c r="X2" t="n">
-        <v>511.8624171433438</v>
+        <v>414.0172523312954</v>
       </c>
       <c r="Y2" t="n">
-        <v>511.8624171433438</v>
+        <v>224.5974673148104</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>310.4710146076719</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="C3" t="n">
-        <v>310.4710146076719</v>
+        <v>607.2476507906783</v>
       </c>
       <c r="D3" t="n">
-        <v>161.5366049464206</v>
+        <v>458.313241129427</v>
       </c>
       <c r="E3" t="n">
-        <v>161.5366049464206</v>
+        <v>299.0757861239715</v>
       </c>
       <c r="F3" t="n">
-        <v>15.0020469733056</v>
+        <v>152.5412281508565</v>
       </c>
       <c r="G3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J3" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K3" t="n">
-        <v>67.13418877024208</v>
+        <v>67.13418877024196</v>
       </c>
       <c r="L3" t="n">
         <v>183.554828077265</v>
       </c>
       <c r="M3" t="n">
-        <v>338.7690911140245</v>
+        <v>338.7690911140247</v>
       </c>
       <c r="N3" t="n">
-        <v>512.5000587546604</v>
+        <v>512.5000587546606</v>
       </c>
       <c r="O3" t="n">
-        <v>649.2101578476352</v>
+        <v>649.2101578476354</v>
       </c>
       <c r="P3" t="n">
-        <v>739.5989987017066</v>
+        <v>739.5989987017073</v>
       </c>
       <c r="Q3" t="n">
-        <v>750.10234866528</v>
+        <v>750.1023486652808</v>
       </c>
       <c r="R3" t="n">
-        <v>750.10234866528</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="S3" t="n">
-        <v>750.10234866528</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="T3" t="n">
-        <v>750.10234866528</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="U3" t="n">
-        <v>750.10234866528</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="V3" t="n">
-        <v>689.3105846406417</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="W3" t="n">
-        <v>499.8907996241568</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="X3" t="n">
-        <v>310.4710146076719</v>
+        <v>676.9378076264292</v>
       </c>
       <c r="Y3" t="n">
-        <v>310.4710146076719</v>
+        <v>676.9378076264292</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="C4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="D4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="E4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="F4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="G4" t="n">
-        <v>67.74542702828998</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="H4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="I4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="J4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="K4" t="n">
-        <v>15.0020469733056</v>
+        <v>15.00204697330562</v>
       </c>
       <c r="L4" t="n">
-        <v>27.03967056230179</v>
+        <v>27.03967056230187</v>
       </c>
       <c r="M4" t="n">
-        <v>42.98993985170723</v>
+        <v>42.98993985170739</v>
       </c>
       <c r="N4" t="n">
-        <v>66.41847329396343</v>
+        <v>66.41847329396366</v>
       </c>
       <c r="O4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="P4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Q4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="R4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="S4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="T4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="U4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="V4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="W4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="X4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829027</v>
       </c>
       <c r="Y4" t="n">
-        <v>67.74542702828998</v>
+        <v>67.74542702829027</v>
       </c>
     </row>
     <row r="5">
@@ -4543,76 +4543,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>964.350071206419</v>
+        <v>1570.936070397276</v>
       </c>
       <c r="C5" t="n">
-        <v>595.3875542660073</v>
+        <v>1201.973553456864</v>
       </c>
       <c r="D5" t="n">
-        <v>237.1218556592568</v>
+        <v>843.7078548501136</v>
       </c>
       <c r="E5" t="n">
-        <v>237.1218556592568</v>
+        <v>457.9196022518694</v>
       </c>
       <c r="F5" t="n">
-        <v>230.1763549100534</v>
+        <v>46.93369746226184</v>
       </c>
       <c r="G5" t="n">
-        <v>34.55805631675772</v>
+        <v>34.55805631675741</v>
       </c>
       <c r="H5" t="n">
-        <v>34.55805631675772</v>
+        <v>34.55805631675741</v>
       </c>
       <c r="I5" t="n">
-        <v>34.55805631675772</v>
+        <v>34.55805631675741</v>
       </c>
       <c r="J5" t="n">
-        <v>111.6705539017221</v>
+        <v>111.6705539017206</v>
       </c>
       <c r="K5" t="n">
-        <v>277.9807166746981</v>
+        <v>277.9807166746951</v>
       </c>
       <c r="L5" t="n">
-        <v>521.2049416030769</v>
+        <v>521.2049416030718</v>
       </c>
       <c r="M5" t="n">
-        <v>823.508193570919</v>
+        <v>823.5081935709113</v>
       </c>
       <c r="N5" t="n">
-        <v>1135.316836582753</v>
+        <v>1135.316836582743</v>
       </c>
       <c r="O5" t="n">
-        <v>1416.413635079241</v>
+        <v>1416.413635079229</v>
       </c>
       <c r="P5" t="n">
-        <v>1621.82224833276</v>
+        <v>1621.822248332746</v>
       </c>
       <c r="Q5" t="n">
-        <v>1727.902815837886</v>
+        <v>1727.902815837871</v>
       </c>
       <c r="R5" t="n">
-        <v>1703.718566540655</v>
+        <v>1703.718566540638</v>
       </c>
       <c r="S5" t="n">
-        <v>1703.718566540655</v>
+        <v>1703.718566540638</v>
       </c>
       <c r="T5" t="n">
-        <v>1703.718566540655</v>
+        <v>1703.718566540638</v>
       </c>
       <c r="U5" t="n">
-        <v>1703.718566540655</v>
+        <v>1703.718566540638</v>
       </c>
       <c r="V5" t="n">
-        <v>1703.718566540655</v>
+        <v>1703.718566540638</v>
       </c>
       <c r="W5" t="n">
-        <v>1350.949911270541</v>
+        <v>1570.936070397276</v>
       </c>
       <c r="X5" t="n">
-        <v>1350.949911270541</v>
+        <v>1570.936070397276</v>
       </c>
       <c r="Y5" t="n">
-        <v>1350.949911270541</v>
+        <v>1570.936070397276</v>
       </c>
     </row>
     <row r="6">
@@ -4622,67 +4622,67 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>663.7175082377065</v>
+        <v>663.7175082377062</v>
       </c>
       <c r="C6" t="n">
-        <v>489.2644789565795</v>
+        <v>489.2644789565792</v>
       </c>
       <c r="D6" t="n">
-        <v>340.3300692953283</v>
+        <v>340.3300692953279</v>
       </c>
       <c r="E6" t="n">
-        <v>181.0926142898728</v>
+        <v>181.0926142898724</v>
       </c>
       <c r="F6" t="n">
-        <v>34.55805631675772</v>
+        <v>34.55805631675741</v>
       </c>
       <c r="G6" t="n">
-        <v>34.55805631675772</v>
+        <v>34.55805631675741</v>
       </c>
       <c r="H6" t="n">
-        <v>34.55805631675772</v>
+        <v>34.55805631675741</v>
       </c>
       <c r="I6" t="n">
-        <v>34.55805631675772</v>
+        <v>34.55805631675741</v>
       </c>
       <c r="J6" t="n">
-        <v>61.66788464787547</v>
+        <v>61.66788464787449</v>
       </c>
       <c r="K6" t="n">
-        <v>186.1577239806067</v>
+        <v>186.1577239806045</v>
       </c>
       <c r="L6" t="n">
-        <v>399.8722171189985</v>
+        <v>399.8722171189947</v>
       </c>
       <c r="M6" t="n">
-        <v>668.623818522351</v>
+        <v>668.6238185223453</v>
       </c>
       <c r="N6" t="n">
-        <v>958.8971200352491</v>
+        <v>958.8971200352416</v>
       </c>
       <c r="O6" t="n">
-        <v>1202.22068622832</v>
+        <v>1202.220686228311</v>
       </c>
       <c r="P6" t="n">
-        <v>1378.17623363951</v>
+        <v>1378.1762336395</v>
       </c>
       <c r="Q6" t="n">
-        <v>1445.878660906551</v>
+        <v>1445.87866090654</v>
       </c>
       <c r="R6" t="n">
-        <v>1445.878660906551</v>
+        <v>1445.87866090654</v>
       </c>
       <c r="S6" t="n">
-        <v>1445.878660906551</v>
+        <v>1445.87866090654</v>
       </c>
       <c r="T6" t="n">
-        <v>1445.878660906551</v>
+        <v>1445.87866090654</v>
       </c>
       <c r="U6" t="n">
-        <v>1445.878660906551</v>
+        <v>1445.87866090654</v>
       </c>
       <c r="V6" t="n">
-        <v>1445.878660906551</v>
+        <v>1445.87866090654</v>
       </c>
       <c r="W6" t="n">
         <v>1247.544644228261</v>
@@ -4691,7 +4691,7 @@
         <v>1039.693144022728</v>
       </c>
       <c r="Y6" t="n">
-        <v>831.9328452577745</v>
+        <v>831.9328452577743</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>369.8190495858013</v>
+        <v>369.8190495857959</v>
       </c>
       <c r="C7" t="n">
-        <v>369.8190495858013</v>
+        <v>369.8190495857959</v>
       </c>
       <c r="D7" t="n">
-        <v>329.3610973970612</v>
+        <v>369.8190495857959</v>
       </c>
       <c r="E7" t="n">
-        <v>181.4480038146681</v>
+        <v>349.7535309159019</v>
       </c>
       <c r="F7" t="n">
-        <v>34.55805631675772</v>
+        <v>202.8635834179915</v>
       </c>
       <c r="G7" t="n">
-        <v>34.55805631675772</v>
+        <v>34.55805631675741</v>
       </c>
       <c r="H7" t="n">
-        <v>34.55805631675772</v>
+        <v>34.55805631675741</v>
       </c>
       <c r="I7" t="n">
-        <v>34.55805631675772</v>
+        <v>34.55805631675741</v>
       </c>
       <c r="J7" t="n">
-        <v>34.55805631675772</v>
+        <v>34.55805631675741</v>
       </c>
       <c r="K7" t="n">
-        <v>64.24066662574705</v>
+        <v>64.24066662574603</v>
       </c>
       <c r="L7" t="n">
-        <v>132.1299861584118</v>
+        <v>132.1299861584099</v>
       </c>
       <c r="M7" t="n">
-        <v>206.9680378347977</v>
+        <v>206.9680378347948</v>
       </c>
       <c r="N7" t="n">
-        <v>287.8841338195373</v>
+        <v>287.8841338195334</v>
       </c>
       <c r="O7" t="n">
-        <v>342.3101561934724</v>
+        <v>342.3101561934677</v>
       </c>
       <c r="P7" t="n">
-        <v>369.8190495858013</v>
+        <v>369.8190495857959</v>
       </c>
       <c r="Q7" t="n">
-        <v>369.8190495858013</v>
+        <v>369.8190495857959</v>
       </c>
       <c r="R7" t="n">
-        <v>369.8190495858013</v>
+        <v>369.8190495857959</v>
       </c>
       <c r="S7" t="n">
-        <v>369.8190495858013</v>
+        <v>369.8190495857959</v>
       </c>
       <c r="T7" t="n">
-        <v>369.8190495858013</v>
+        <v>369.8190495857959</v>
       </c>
       <c r="U7" t="n">
-        <v>369.8190495858013</v>
+        <v>369.8190495857959</v>
       </c>
       <c r="V7" t="n">
-        <v>369.8190495858013</v>
+        <v>369.8190495857959</v>
       </c>
       <c r="W7" t="n">
-        <v>369.8190495858013</v>
+        <v>369.8190495857959</v>
       </c>
       <c r="X7" t="n">
-        <v>369.8190495858013</v>
+        <v>369.8190495857959</v>
       </c>
       <c r="Y7" t="n">
-        <v>369.8190495858013</v>
+        <v>369.8190495857959</v>
       </c>
     </row>
     <row r="8">
@@ -4780,76 +4780,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>545.2988805405388</v>
+        <v>80.81618965246838</v>
       </c>
       <c r="C8" t="n">
-        <v>545.2988805405388</v>
+        <v>80.81618965246838</v>
       </c>
       <c r="D8" t="n">
-        <v>545.2988805405388</v>
+        <v>80.81618965246838</v>
       </c>
       <c r="E8" t="n">
-        <v>545.2988805405388</v>
+        <v>80.81618965246838</v>
       </c>
       <c r="F8" t="n">
-        <v>134.3129757509312</v>
+        <v>73.87068890326491</v>
       </c>
       <c r="G8" t="n">
-        <v>122.3223344947425</v>
+        <v>61.88004764707625</v>
       </c>
       <c r="H8" t="n">
-        <v>122.3223344947425</v>
+        <v>61.88004764707625</v>
       </c>
       <c r="I8" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J8" t="n">
-        <v>152.5078184301901</v>
+        <v>152.5078184301905</v>
       </c>
       <c r="K8" t="n">
-        <v>366.8168396232718</v>
+        <v>366.8168396232728</v>
       </c>
       <c r="L8" t="n">
-        <v>669.5878927711865</v>
+        <v>669.5878927711882</v>
       </c>
       <c r="M8" t="n">
-        <v>1038.14846457873</v>
+        <v>1038.148464578732</v>
       </c>
       <c r="N8" t="n">
-        <v>1417.286540135166</v>
+        <v>1417.286540135169</v>
       </c>
       <c r="O8" t="n">
-        <v>1761.960612545596</v>
+        <v>1761.960612545599</v>
       </c>
       <c r="P8" t="n">
-        <v>2021.630958172447</v>
+        <v>2021.630958172451</v>
       </c>
       <c r="Q8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="R8" t="n">
-        <v>2168.459826904653</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="S8" t="n">
-        <v>2048.272466111666</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="T8" t="n">
-        <v>2048.272466111666</v>
+        <v>2168.459826904657</v>
       </c>
       <c r="U8" t="n">
-        <v>2048.272466111666</v>
+        <v>1914.852662567167</v>
       </c>
       <c r="V8" t="n">
-        <v>2048.272466111666</v>
+        <v>1583.789775223596</v>
       </c>
       <c r="W8" t="n">
-        <v>1695.503810841552</v>
+        <v>1231.021119953482</v>
       </c>
       <c r="X8" t="n">
-        <v>1322.038052580472</v>
+        <v>857.5553616924019</v>
       </c>
       <c r="Y8" t="n">
-        <v>931.8987206046606</v>
+        <v>467.4160297165902</v>
       </c>
     </row>
     <row r="9">
@@ -4859,76 +4859,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>503.6326292653554</v>
+        <v>672.528648459042</v>
       </c>
       <c r="C9" t="n">
-        <v>329.1795999842284</v>
+        <v>498.075619177915</v>
       </c>
       <c r="D9" t="n">
-        <v>180.2451903229772</v>
+        <v>349.1412095166637</v>
       </c>
       <c r="E9" t="n">
-        <v>180.2451903229772</v>
+        <v>189.9037545112082</v>
       </c>
       <c r="F9" t="n">
-        <v>180.2451903229772</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I9" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J9" t="n">
-        <v>89.55356510562316</v>
+        <v>89.55356510562345</v>
       </c>
       <c r="K9" t="n">
-        <v>246.6448318504519</v>
+        <v>246.6448318504525</v>
       </c>
       <c r="L9" t="n">
-        <v>504.1959674104395</v>
+        <v>504.1959674104405</v>
       </c>
       <c r="M9" t="n">
-        <v>824.1028628789488</v>
+        <v>824.1028628789504</v>
       </c>
       <c r="N9" t="n">
-        <v>1166.88538687358</v>
+        <v>1166.885386873582</v>
       </c>
       <c r="O9" t="n">
-        <v>1458.244633128146</v>
+        <v>1458.244633128149</v>
       </c>
       <c r="P9" t="n">
-        <v>1672.753048689047</v>
+        <v>1672.75304868905</v>
       </c>
       <c r="Q9" t="n">
-        <v>1766.227047333487</v>
+        <v>1766.22704733349</v>
       </c>
       <c r="R9" t="n">
-        <v>1734.238298972664</v>
+        <v>1738.694731044534</v>
       </c>
       <c r="S9" t="n">
-        <v>1734.238298972664</v>
+        <v>1738.694731044534</v>
       </c>
       <c r="T9" t="n">
-        <v>1734.238298972664</v>
+        <v>1738.694731044534</v>
       </c>
       <c r="U9" t="n">
-        <v>1576.849230215854</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="V9" t="n">
-        <v>1341.697121984112</v>
+        <v>1510.593141177798</v>
       </c>
       <c r="W9" t="n">
-        <v>1087.45976525591</v>
+        <v>1256.355784449597</v>
       </c>
       <c r="X9" t="n">
-        <v>879.6082650503772</v>
+        <v>1048.504284244064</v>
       </c>
       <c r="Y9" t="n">
-        <v>671.8479662854234</v>
+        <v>840.7439854791101</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>488.2888770307322</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="C10" t="n">
-        <v>488.2888770307322</v>
+        <v>488.2888770307324</v>
       </c>
       <c r="D10" t="n">
-        <v>338.1722376183965</v>
+        <v>338.1722376183966</v>
       </c>
       <c r="E10" t="n">
-        <v>190.2591440360034</v>
+        <v>190.2591440360035</v>
       </c>
       <c r="F10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="G10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="H10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="I10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="J10" t="n">
-        <v>43.36919653809306</v>
+        <v>43.36919653809315</v>
       </c>
       <c r="K10" t="n">
-        <v>92.71685897981523</v>
+        <v>92.71685897981551</v>
       </c>
       <c r="L10" t="n">
-        <v>185.7706748018941</v>
+        <v>185.7706748018947</v>
       </c>
       <c r="M10" t="n">
-        <v>287.1411594927332</v>
+        <v>287.141159492734</v>
       </c>
       <c r="N10" t="n">
-        <v>393.9588065377461</v>
+        <v>393.9588065377471</v>
       </c>
       <c r="O10" t="n">
-        <v>472.3091036033659</v>
+        <v>472.3091036033672</v>
       </c>
       <c r="P10" t="n">
-        <v>520.2893470405991</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Q10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="R10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="S10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="T10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="U10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="V10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="W10" t="n">
-        <v>497.4664265514521</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="X10" t="n">
-        <v>488.2888770307322</v>
+        <v>520.2893470406007</v>
       </c>
       <c r="Y10" t="n">
-        <v>488.2888770307322</v>
+        <v>520.2893470406007</v>
       </c>
     </row>
     <row r="11">
@@ -5032,58 +5032,58 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362685</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I11" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111719</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.422291068011</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
         <v>2704.375866615997</v>
@@ -5114,28 +5114,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756266</v>
+        <v>243.4633055756265</v>
       </c>
       <c r="K12" t="n">
-        <v>352.5519571452614</v>
+        <v>577.388077746847</v>
       </c>
       <c r="L12" t="n">
-        <v>352.5519571452614</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M12" t="n">
-        <v>949.9304447718133</v>
+        <v>1670.092171589157</v>
       </c>
       <c r="N12" t="n">
-        <v>1577.52840832642</v>
+        <v>2297.690135143764</v>
       </c>
       <c r="O12" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
         <v>2553.061288060775</v>
@@ -5175,37 +5175,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>695.5020655703109</v>
+        <v>948.5505208511905</v>
       </c>
       <c r="C13" t="n">
-        <v>526.5658826424041</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="D13" t="n">
-        <v>383.4415877881669</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E13" t="n">
-        <v>235.5284942057738</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F13" t="n">
-        <v>235.5284942057738</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J13" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K13" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L13" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M13" t="n">
         <v>1248.150240910809</v>
@@ -5238,13 +5238,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W13" t="n">
-        <v>1144.284195611858</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="X13" t="n">
-        <v>916.2946447138411</v>
+        <v>1205.711814750802</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703109</v>
+        <v>1130.19898568143</v>
       </c>
     </row>
     <row r="14">
@@ -5272,31 +5272,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q14" t="n">
         <v>4562.265728852255</v>
@@ -5305,22 +5305,22 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U14" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V14" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W14" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X14" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
         <v>2704.375866615997</v>
@@ -5351,25 +5351,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J15" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1577.52840832642</v>
+        <v>1501.840175011101</v>
       </c>
       <c r="N15" t="n">
-        <v>1577.52840832642</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="O15" t="n">
         <v>2129.438138565707</v>
@@ -5412,37 +5412,37 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>727.9786782557277</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="C16" t="n">
-        <v>559.0424953278208</v>
+        <v>782.8410298377091</v>
       </c>
       <c r="D16" t="n">
-        <v>408.925855915485</v>
+        <v>632.7243904253734</v>
       </c>
       <c r="E16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="F16" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M16" t="n">
         <v>1248.150240910809</v>
@@ -5463,25 +5463,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T16" t="n">
-        <v>2191.586158026164</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U16" t="n">
-        <v>1902.510931370362</v>
+        <v>1938.286391947399</v>
       </c>
       <c r="V16" t="n">
-        <v>1647.826443164475</v>
+        <v>1683.601903741512</v>
       </c>
       <c r="W16" t="n">
-        <v>1358.409273127515</v>
+        <v>1394.184733704551</v>
       </c>
       <c r="X16" t="n">
-        <v>1130.419722229497</v>
+        <v>1166.195182806534</v>
       </c>
       <c r="Y16" t="n">
-        <v>909.6271430859674</v>
+        <v>945.402603663004</v>
       </c>
     </row>
     <row r="17">
@@ -5509,31 +5509,31 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K17" t="n">
         <v>852.8523611075805</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
         <v>3640.42229106801</v>
       </c>
       <c r="P17" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q17" t="n">
         <v>4562.265728852255</v>
@@ -5551,7 +5551,7 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V17" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W17" t="n">
         <v>3467.980956852889</v>
@@ -5588,25 +5588,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H18" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.584050252739</v>
       </c>
       <c r="J18" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266882</v>
       </c>
       <c r="N18" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O18" t="n">
         <v>2553.061288060775</v>
@@ -5649,37 +5649,37 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>734.6461798836013</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C19" t="n">
-        <v>734.6461798836013</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D19" t="n">
-        <v>584.5295404712656</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E19" t="n">
-        <v>436.6164468888725</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F19" t="n">
-        <v>289.7264993909621</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G19" t="n">
-        <v>122.530400105842</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J19" t="n">
         <v>174.0526814782957</v>
       </c>
       <c r="K19" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L19" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797744</v>
       </c>
       <c r="M19" t="n">
         <v>1248.150240910809</v>
@@ -5697,28 +5697,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S19" t="n">
-        <v>2197.062545487567</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T19" t="n">
-        <v>1977.461080510508</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U19" t="n">
-        <v>1688.385853854706</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V19" t="n">
-        <v>1433.701365648819</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="W19" t="n">
-        <v>1144.284195611858</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X19" t="n">
-        <v>916.2946447138411</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y19" t="n">
-        <v>916.2946447138411</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="20">
@@ -5746,28 +5746,28 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H20" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075801</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O20" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P20" t="n">
         <v>4194.413870694707</v>
@@ -5779,7 +5779,7 @@
         <v>4690.833152398593</v>
       </c>
       <c r="S20" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T20" t="n">
         <v>4405.252601474784</v>
@@ -5788,13 +5788,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5825,25 +5825,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H21" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J21" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>1670.092171589158</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>2297.690135143765</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
         <v>2553.061288060775</v>
@@ -5886,28 +5886,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>1016.58045691144</v>
+        <v>1098.667160263526</v>
       </c>
       <c r="C22" t="n">
-        <v>847.6442739835331</v>
+        <v>929.7309773356194</v>
       </c>
       <c r="D22" t="n">
-        <v>697.5276345711974</v>
+        <v>779.6143379232836</v>
       </c>
       <c r="E22" t="n">
-        <v>549.6145409888043</v>
+        <v>631.7012443408905</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429802</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H22" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I22" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J22" t="n">
         <v>174.0526814782957</v>
@@ -5937,25 +5937,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="U22" t="n">
-        <v>1936.428221820188</v>
+        <v>2273.199413378161</v>
       </c>
       <c r="V22" t="n">
-        <v>1936.428221820188</v>
+        <v>2018.514925172274</v>
       </c>
       <c r="W22" t="n">
-        <v>1647.011051783227</v>
+        <v>1729.097755135313</v>
       </c>
       <c r="X22" t="n">
-        <v>1419.02150088521</v>
+        <v>1501.108204237296</v>
       </c>
       <c r="Y22" t="n">
-        <v>1198.22892174168</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="23">
@@ -5971,13 +5971,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362686</v>
@@ -6025,13 +6025,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6065,22 +6065,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
         <v>2553.061288060775</v>
@@ -6138,10 +6138,10 @@
         <v>344.9174178121643</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>177.7213185270443</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6208,13 +6208,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
@@ -6223,25 +6223,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
         <v>4194.413870694707</v>
@@ -6302,22 +6302,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
         <v>2553.061288060775</v>
@@ -6360,25 +6360,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>560.7825789706076</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C28" t="n">
-        <v>391.8463960427007</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="D28" t="n">
-        <v>241.729756630365</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="E28" t="n">
-        <v>93.81666304797187</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F28" t="n">
-        <v>93.81666304797187</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G28" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I28" t="n">
         <v>93.81666304797187</v>
@@ -6408,28 +6408,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2426.846358063199</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2243.991523718104</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T28" t="n">
-        <v>2024.390058741045</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1735.314832085242</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1480.630343879355</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1191.213173842395</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>963.2236229443774</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>742.4310438008473</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6439,19 +6439,19 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C29" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362686</v>
@@ -6460,22 +6460,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
         <v>3640.42229106801</v>
@@ -6496,19 +6496,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U29" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V29" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W29" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X29" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y29" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="30">
@@ -6539,22 +6539,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O30" t="n">
         <v>2553.061288060775</v>
@@ -6597,25 +6597,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400712</v>
+        <v>1098.667160263527</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6645,28 +6645,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510508</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854706</v>
+        <v>2227.361618603201</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.701365648819</v>
+        <v>1972.677130397314</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611858</v>
+        <v>1683.259960360354</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138411</v>
+        <v>1455.270409462336</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703109</v>
+        <v>1280.315625093766</v>
       </c>
     </row>
     <row r="32">
@@ -6697,13 +6697,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
@@ -6776,22 +6776,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
         <v>2553.061288060775</v>
@@ -6834,25 +6834,25 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>580.8993044876688</v>
+        <v>733.4550657171301</v>
       </c>
       <c r="C34" t="n">
-        <v>580.8993044876688</v>
+        <v>564.5188827892232</v>
       </c>
       <c r="D34" t="n">
-        <v>555.8158034133954</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="E34" t="n">
-        <v>407.9027098310023</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="F34" t="n">
-        <v>261.0127623330919</v>
+        <v>414.4022433768874</v>
       </c>
       <c r="G34" t="n">
-        <v>93.81666304797187</v>
+        <v>247.2061440917674</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>105.4943129339655</v>
       </c>
       <c r="I34" t="n">
         <v>93.81666304797187</v>
@@ -6882,28 +6882,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R34" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S34" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T34" t="n">
-        <v>2044.506784258106</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="U34" t="n">
-        <v>1755.431557602304</v>
+        <v>1907.987318831765</v>
       </c>
       <c r="V34" t="n">
-        <v>1500.747069396417</v>
+        <v>1653.302830625878</v>
       </c>
       <c r="W34" t="n">
-        <v>1211.329899359456</v>
+        <v>1363.885660588917</v>
       </c>
       <c r="X34" t="n">
-        <v>983.3403484614387</v>
+        <v>1135.8961096909</v>
       </c>
       <c r="Y34" t="n">
-        <v>762.5477693179085</v>
+        <v>915.1035305473698</v>
       </c>
     </row>
     <row r="35">
@@ -6934,25 +6934,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6973,13 +6973,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7013,22 +7013,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
         <v>2553.061288060775</v>
@@ -7071,25 +7071,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="C37" t="n">
-        <v>513.8536007400712</v>
+        <v>929.7309773356195</v>
       </c>
       <c r="D37" t="n">
-        <v>513.8536007400712</v>
+        <v>779.6143379232838</v>
       </c>
       <c r="E37" t="n">
-        <v>365.9405071576781</v>
+        <v>631.7012443408906</v>
       </c>
       <c r="F37" t="n">
-        <v>261.0127623330919</v>
+        <v>484.8112968429803</v>
       </c>
       <c r="G37" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H37" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I37" t="n">
         <v>93.81666304797187</v>
@@ -7119,28 +7119,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R37" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S37" t="n">
-        <v>2197.062545487567</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="T37" t="n">
-        <v>1977.461080510508</v>
+        <v>2393.338457106056</v>
       </c>
       <c r="U37" t="n">
-        <v>1688.385853854706</v>
+        <v>2104.263230450254</v>
       </c>
       <c r="V37" t="n">
-        <v>1433.701365648819</v>
+        <v>1849.578742244367</v>
       </c>
       <c r="W37" t="n">
-        <v>1144.284195611858</v>
+        <v>1560.161572207407</v>
       </c>
       <c r="X37" t="n">
-        <v>916.2946447138411</v>
+        <v>1332.172021309389</v>
       </c>
       <c r="Y37" t="n">
-        <v>695.5020655703109</v>
+        <v>1111.379442165859</v>
       </c>
     </row>
     <row r="38">
@@ -7171,22 +7171,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7250,22 +7250,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
         <v>2553.061288060775</v>
@@ -7308,22 +7308,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>580.8993044876688</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C40" t="n">
-        <v>411.9631215597619</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H40" t="n">
         <v>93.81666304797187</v>
@@ -7359,25 +7359,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S40" t="n">
-        <v>2264.108249235165</v>
+        <v>2390.881471216014</v>
       </c>
       <c r="T40" t="n">
-        <v>2044.506784258106</v>
+        <v>2171.280006238955</v>
       </c>
       <c r="U40" t="n">
-        <v>1755.431557602304</v>
+        <v>1882.204779583153</v>
       </c>
       <c r="V40" t="n">
-        <v>1500.747069396417</v>
+        <v>1627.520291377266</v>
       </c>
       <c r="W40" t="n">
-        <v>1211.329899359456</v>
+        <v>1338.103121340305</v>
       </c>
       <c r="X40" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y40" t="n">
-        <v>762.5477693179085</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="41">
@@ -7411,19 +7411,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7487,22 +7487,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
         <v>2553.061288060775</v>
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>983.3403484614387</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C43" t="n">
-        <v>847.6442739835331</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D43" t="n">
-        <v>697.5276345711974</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E43" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F43" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G43" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H43" t="n">
         <v>93.81666304797187</v>
@@ -7593,28 +7593,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R43" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S43" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>2044.506784258106</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U43" t="n">
-        <v>1755.431557602304</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V43" t="n">
-        <v>1500.747069396417</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W43" t="n">
-        <v>1211.329899359456</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X43" t="n">
-        <v>983.3403484614387</v>
+        <v>1110.113570442288</v>
       </c>
       <c r="Y43" t="n">
-        <v>983.3403484614387</v>
+        <v>889.3209912987577</v>
       </c>
     </row>
     <row r="44">
@@ -7624,34 +7624,34 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551873</v>
       </c>
       <c r="C44" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611461</v>
       </c>
       <c r="D44" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004711</v>
       </c>
       <c r="E44" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406466</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168588</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362663</v>
       </c>
       <c r="H44" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I44" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111714</v>
       </c>
       <c r="K44" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L44" t="n">
         <v>1478.611553332386</v>
@@ -7663,37 +7663,37 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.422291068008</v>
       </c>
       <c r="P44" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694705</v>
       </c>
       <c r="Q44" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R44" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398592</v>
       </c>
       <c r="S44" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492576</v>
       </c>
       <c r="T44" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474782</v>
       </c>
       <c r="U44" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466571</v>
       </c>
       <c r="V44" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W44" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852886</v>
       </c>
       <c r="X44" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591806</v>
       </c>
       <c r="Y44" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615995</v>
       </c>
     </row>
     <row r="45">
@@ -7721,25 +7721,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H45" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273898</v>
       </c>
       <c r="J45" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803936</v>
       </c>
       <c r="K45" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516141</v>
       </c>
       <c r="L45" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793924</v>
       </c>
       <c r="N45" t="n">
-        <v>2297.690135143765</v>
+        <v>2299.457522348531</v>
       </c>
       <c r="O45" t="n">
         <v>2553.061288060775</v>
@@ -7782,37 +7782,37 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>801.6605733532803</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C46" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="D46" t="n">
-        <v>632.7243904253734</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="E46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="F46" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G46" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H46" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797183</v>
       </c>
       <c r="J46" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782956</v>
       </c>
       <c r="K46" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038342</v>
       </c>
       <c r="L46" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797742</v>
       </c>
       <c r="M46" t="n">
         <v>1248.150240910809</v>
@@ -7839,19 +7839,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1976.192826467915</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1721.508338262028</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W46" t="n">
-        <v>1432.091168225067</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X46" t="n">
-        <v>1204.10161732705</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y46" t="n">
-        <v>983.30903818352</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
   </sheetData>
@@ -23317,7 +23317,7 @@
         <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>2.103206497849897e-12</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23415,28 +23415,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>6.922421112517554</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23478,13 +23478,13 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>143.826952573417</v>
       </c>
     </row>
     <row r="14">
@@ -23652,10 +23652,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
+        <v>18.89602209489536</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -23670,10 +23670,10 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23700,13 +23700,13 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012169</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T16" t="n">
-        <v>145.6085800303779</v>
+        <v>0</v>
       </c>
       <c r="U16" t="n">
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>0</v>
+        <v>9.237055564881302e-13</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23892,7 +23892,7 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>111.8681131589324</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23937,7 +23937,7 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.3752467101217</v>
       </c>
       <c r="S19" t="n">
         <v>0</v>
@@ -23949,16 +23949,16 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>0</v>
+        <v>226.0671788815077</v>
       </c>
       <c r="W19" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X19" t="n">
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24147,7 +24147,7 @@
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24177,16 +24177,16 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U22" t="n">
-        <v>179.1866975757051</v>
+        <v>114.1584408891656</v>
       </c>
       <c r="V22" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W22" t="n">
         <v>0</v>
@@ -24378,13 +24378,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>138.4949402405078</v>
+        <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>57.22910392194221</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24600,28 +24600,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>83.27114962944307</v>
       </c>
       <c r="F28" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24648,7 +24648,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>46.45968844823106</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
         <v>0</v>
@@ -24840,16 +24840,16 @@
         <v>0</v>
       </c>
       <c r="C31" t="n">
-        <v>57.22910392194228</v>
+        <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24858,7 +24858,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24885,16 +24885,16 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -24906,7 +24906,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>45.37941682721026</v>
       </c>
     </row>
     <row r="32">
@@ -25077,25 +25077,25 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>123.7828069546817</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
         <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>69.70496293143188</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25122,13 +25122,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S34" t="n">
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25317,22 +25317,22 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D37" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>41.54258064659095</v>
+        <v>0</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25359,13 +25359,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>164.3170701178259</v>
       </c>
       <c r="U37" t="n">
         <v>0</v>
@@ -25554,19 +25554,19 @@
         <v>0</v>
       </c>
       <c r="D40" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
         <v>81.26583631856553</v>
@@ -25599,7 +25599,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>0</v>
+        <v>125.5054897610404</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25785,10 +25785,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>32.90770736550135</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
         <v>81.26583631856553</v>
@@ -25833,7 +25833,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S43" t="n">
         <v>0</v>
@@ -25851,10 +25851,10 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>191.8807364711622</v>
       </c>
       <c r="Y43" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -26025,13 +26025,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="D46" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26043,7 +26043,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26079,7 +26079,7 @@
         <v>0</v>
       </c>
       <c r="U46" t="n">
-        <v>284.9289028870768</v>
+        <v>0</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503017</v>
       </c>
     </row>
     <row r="6">
@@ -26165,7 +26165,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>821785.2548503018</v>
+        <v>821785.2548503019</v>
       </c>
     </row>
     <row r="8">
@@ -26181,7 +26181,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="10">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>821785.2548503018</v>
+        <v>821785.2548503019</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>821785.2548503018</v>
+        <v>821785.2548503019</v>
       </c>
     </row>
     <row r="12">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>821785.2548503018</v>
+        <v>821785.2548503019</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="15">
@@ -26229,7 +26229,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
     <row r="16">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>821785.2548503019</v>
+        <v>821785.2548503018</v>
       </c>
     </row>
   </sheetData>
@@ -26313,46 +26313,46 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>615781.3273982126</v>
+        <v>615781.3273982127</v>
       </c>
       <c r="C2" t="n">
         <v>615781.3273982127</v>
       </c>
       <c r="D2" t="n">
-        <v>615781.3273982122</v>
+        <v>615781.3273982123</v>
       </c>
       <c r="E2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="F2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="G2" t="n">
+        <v>605359.9497675044</v>
+      </c>
+      <c r="H2" t="n">
         <v>605359.9497675042</v>
       </c>
-      <c r="F2" t="n">
+      <c r="I2" t="n">
         <v>605359.9497675041</v>
       </c>
-      <c r="G2" t="n">
-        <v>605359.9497675046</v>
-      </c>
-      <c r="H2" t="n">
-        <v>605359.949767504</v>
-      </c>
-      <c r="I2" t="n">
-        <v>605359.949767504</v>
-      </c>
       <c r="J2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675042</v>
       </c>
       <c r="K2" t="n">
         <v>605359.9497675042</v>
       </c>
       <c r="L2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675045</v>
       </c>
       <c r="M2" t="n">
-        <v>605359.9497675041</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="N2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="O2" t="n">
-        <v>605359.949767504</v>
+        <v>605359.9497675046</v>
       </c>
       <c r="P2" t="n">
         <v>605359.9497675041</v>
@@ -26365,16 +26365,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>591356.9025208454</v>
+        <v>591356.9025208458</v>
       </c>
       <c r="C3" t="n">
-        <v>270592.3620253128</v>
+        <v>270592.3620253082</v>
       </c>
       <c r="D3" t="n">
-        <v>115410.0540231924</v>
+        <v>115410.0540231978</v>
       </c>
       <c r="E3" t="n">
-        <v>601443.2075742651</v>
+        <v>601443.2075742637</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26383,7 +26383,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>1.741016149026109e-10</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -26392,13 +26392,13 @@
         <v>49064.94472854465</v>
       </c>
       <c r="K3" t="n">
-        <v>62913.63765881981</v>
+        <v>62913.63765881881</v>
       </c>
       <c r="L3" t="n">
-        <v>27875.2536219748</v>
+        <v>27875.25362197605</v>
       </c>
       <c r="M3" t="n">
-        <v>157146.380551598</v>
+        <v>157146.3805515976</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26417,19 +26417,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>278536.5648341299</v>
+        <v>278536.5648341298</v>
       </c>
       <c r="C4" t="n">
-        <v>206604.4229263461</v>
+        <v>206604.4229263472</v>
       </c>
       <c r="D4" t="n">
-        <v>174202.9900888977</v>
+        <v>174202.9900888974</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687973</v>
       </c>
       <c r="G4" t="n">
         <v>15436.64000687967</v>
@@ -26459,7 +26459,7 @@
         <v>15436.64000687967</v>
       </c>
       <c r="P4" t="n">
-        <v>15436.64000687967</v>
+        <v>15436.64000687977</v>
       </c>
     </row>
     <row r="5">
@@ -26469,13 +26469,13 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>56985.80041161358</v>
+        <v>56985.80041161359</v>
       </c>
       <c r="C5" t="n">
-        <v>76435.73471936822</v>
+        <v>76435.7347193679</v>
       </c>
       <c r="D5" t="n">
-        <v>85199.08185587224</v>
+        <v>85199.08185587233</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-311097.9403683763</v>
+        <v>-311097.9403683764</v>
       </c>
       <c r="C6" t="n">
-        <v>62148.80772718566</v>
+        <v>62148.80772718941</v>
       </c>
       <c r="D6" t="n">
-        <v>240969.2014302498</v>
+        <v>240969.2014302448</v>
       </c>
       <c r="E6" t="n">
-        <v>-112989.8068919045</v>
+        <v>-112677.1655629818</v>
       </c>
       <c r="F6" t="n">
-        <v>488453.4006823603</v>
+        <v>488766.0420112819</v>
       </c>
       <c r="G6" t="n">
-        <v>488453.4006823608</v>
+        <v>488766.0420112819</v>
       </c>
       <c r="H6" t="n">
-        <v>488453.4006823602</v>
+        <v>488766.0420112817</v>
       </c>
       <c r="I6" t="n">
-        <v>488453.4006823602</v>
+        <v>488766.0420112816</v>
       </c>
       <c r="J6" t="n">
-        <v>439388.4559538155</v>
+        <v>439701.097282737</v>
       </c>
       <c r="K6" t="n">
-        <v>425539.7630235407</v>
+        <v>425852.4043524629</v>
       </c>
       <c r="L6" t="n">
-        <v>460578.1470603854</v>
+        <v>460890.7883893059</v>
       </c>
       <c r="M6" t="n">
-        <v>331307.0201307624</v>
+        <v>331619.6614596845</v>
       </c>
       <c r="N6" t="n">
-        <v>488453.4006823602</v>
+        <v>488766.0420112821</v>
       </c>
       <c r="O6" t="n">
-        <v>488453.4006823602</v>
+        <v>488766.0420112821</v>
       </c>
       <c r="P6" t="n">
-        <v>488453.4006823603</v>
+        <v>488766.0420112817</v>
       </c>
     </row>
   </sheetData>
@@ -26737,13 +26737,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>758.899629295062</v>
+        <v>758.8996292950586</v>
       </c>
       <c r="D3" t="n">
-        <v>853.7106645376841</v>
+        <v>853.7106645376851</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26789,13 +26789,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>431.9757039594715</v>
+        <v>431.9757039594676</v>
       </c>
       <c r="D4" t="n">
-        <v>542.1149567261633</v>
+        <v>542.1149567261643</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26959,16 +26959,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>548.4699409129047</v>
+        <v>548.4699409129049</v>
       </c>
       <c r="C3" t="n">
-        <v>210.4296883821573</v>
+        <v>210.4296883821537</v>
       </c>
       <c r="D3" t="n">
-        <v>94.8110352426221</v>
+        <v>94.81103524262653</v>
       </c>
       <c r="E3" t="n">
-        <v>514.2648358039896</v>
+        <v>514.2648358039884</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26977,7 +26977,7 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="C4" t="n">
-        <v>244.4501167931515</v>
+        <v>244.4501167931474</v>
       </c>
       <c r="D4" t="n">
-        <v>110.1392527666918</v>
+        <v>110.1392527666968</v>
       </c>
       <c r="E4" t="n">
-        <v>630.5933313734851</v>
+        <v>630.5933313734836</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27038,13 +27038,13 @@
         <v>187.5255871663201</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931515</v>
+        <v>244.4501167931476</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666918</v>
+        <v>110.1392527666968</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734851</v>
+        <v>630.5933313734836</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>187.52558716632</v>
+        <v>187.5255871663202</v>
       </c>
       <c r="K4" t="n">
-        <v>244.4501167931515</v>
+        <v>244.4501167931474</v>
       </c>
       <c r="L4" t="n">
-        <v>110.1392527666918</v>
+        <v>110.1392527666968</v>
       </c>
       <c r="M4" t="n">
-        <v>630.5933313734851</v>
+        <v>630.5933313734836</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27378,16 +27378,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>285.8671284995523</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
-        <v>177.7473046046875</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
-        <v>194.4047829059418</v>
+        <v>194.4047829059416</v>
       </c>
       <c r="F2" t="n">
         <v>400</v>
@@ -27435,7 +27435,7 @@
         <v>213.4438810562068</v>
       </c>
       <c r="U2" t="n">
-        <v>251.1692605650303</v>
+        <v>154.3025474011015</v>
       </c>
       <c r="V2" t="n">
         <v>327.7522584701349</v>
@@ -27447,7 +27447,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>198.7123514897334</v>
       </c>
     </row>
     <row r="3">
@@ -27460,28 +27460,28 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>103.7152437209224</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>136.1637893657753</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
         <v>100.8417573507397</v>
       </c>
       <c r="I3" t="n">
-        <v>58.90455890409149</v>
+        <v>58.90455890409147</v>
       </c>
       <c r="J3" t="n">
-        <v>15.37922103265838</v>
+        <v>15.37922103265832</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27505,7 +27505,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>72.43289562846319</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>149.7702446909496</v>
@@ -27517,13 +27517,13 @@
         <v>225.8637684100909</v>
       </c>
       <c r="V3" t="n">
-        <v>172.6167407650333</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
-        <v>64.1693959945996</v>
+        <v>251.6949831609196</v>
       </c>
       <c r="X3" t="n">
-        <v>18.24739803715747</v>
+        <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
         <v>205.6826957773044</v>
@@ -27551,19 +27551,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.0019352027142</v>
+        <v>114.7859889482794</v>
       </c>
       <c r="H4" t="n">
-        <v>101.217724577385</v>
+        <v>153.4336708318195</v>
       </c>
       <c r="I4" t="n">
-        <v>125.7072197708667</v>
+        <v>125.7072197708666</v>
       </c>
       <c r="J4" t="n">
-        <v>57.06999962825415</v>
+        <v>57.06999962825412</v>
       </c>
       <c r="K4" t="n">
-        <v>14.1043098940285</v>
+        <v>14.10430989402845</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27578,10 +27578,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>18.10760906709383</v>
+        <v>18.10760906709379</v>
       </c>
       <c r="Q4" t="n">
-        <v>68.68604055159723</v>
+        <v>68.6860405515972</v>
       </c>
       <c r="R4" t="n">
         <v>132.8223696106904</v>
@@ -27615,7 +27615,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
         <v>0</v>
@@ -27624,19 +27624,19 @@
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>218.5897691266867</v>
-      </c>
       <c r="H5" t="n">
-        <v>308.2302560714735</v>
+        <v>308.2302560714736</v>
       </c>
       <c r="I5" t="n">
-        <v>92.85788772760034</v>
+        <v>92.85788772760087</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27666,10 +27666,10 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>139.4987618372555</v>
+        <v>139.4987618372558</v>
       </c>
       <c r="T5" t="n">
-        <v>209.7407415149288</v>
+        <v>209.7407415149289</v>
       </c>
       <c r="U5" t="n">
         <v>251.1015846853496</v>
@@ -27678,7 +27678,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>217.7862975354839</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
@@ -27712,10 +27712,10 @@
         <v>135.7111670171797</v>
       </c>
       <c r="H6" t="n">
-        <v>96.4703783524613</v>
+        <v>96.47037835246138</v>
       </c>
       <c r="I6" t="n">
-        <v>43.32085084937511</v>
+        <v>43.32085084937537</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27742,13 +27742,13 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>44.33060630074789</v>
+        <v>44.33060630074834</v>
       </c>
       <c r="S6" t="n">
-        <v>141.3629830843606</v>
+        <v>141.3629830843607</v>
       </c>
       <c r="T6" t="n">
-        <v>193.5852120974427</v>
+        <v>193.5852120974428</v>
       </c>
       <c r="U6" t="n">
         <v>225.8339906239991</v>
@@ -27757,7 +27757,7 @@
         <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>55.34430664941272</v>
+        <v>55.34430664942374</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -27779,25 +27779,25 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>108.5621003513597</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>126.5690991633742</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.6224718302218</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>150.0598964836597</v>
+        <v>150.0598964836598</v>
       </c>
       <c r="I7" t="n">
-        <v>114.2957212599129</v>
+        <v>114.2957212599131</v>
       </c>
       <c r="J7" t="n">
-        <v>30.24193919304044</v>
+        <v>30.24193919304086</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27818,13 +27818,13 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>36.91115760589147</v>
+        <v>36.911157605892</v>
       </c>
       <c r="R7" t="n">
-        <v>115.7603165166223</v>
+        <v>115.7603165166226</v>
       </c>
       <c r="S7" t="n">
-        <v>200.1672441130602</v>
+        <v>200.1672441130603</v>
       </c>
       <c r="T7" t="n">
         <v>222.0983299894507</v>
@@ -27864,7 +27864,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
@@ -27873,7 +27873,7 @@
         <v>304.326804756183</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>59.83786397918958</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27903,16 +27903,16 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>11.82782152419335</v>
+        <v>130.8133087092504</v>
       </c>
       <c r="T8" t="n">
-        <v>208.0722578696039</v>
+        <v>208.0722578696038</v>
       </c>
       <c r="U8" t="n">
-        <v>251.0710926941158</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
@@ -27940,19 +27940,19 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0</v>
+        <v>135.5072338470352</v>
       </c>
       <c r="H9" t="n">
-        <v>94.50081326185514</v>
+        <v>94.50081326185511</v>
       </c>
       <c r="I9" t="n">
-        <v>36.29946757904885</v>
+        <v>36.29946757904878</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27979,7 +27979,7 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>4.411867751147696</v>
       </c>
       <c r="S9" t="n">
         <v>137.5750138932992</v>
@@ -27988,10 +27988,10 @@
         <v>192.7632183107638</v>
       </c>
       <c r="U9" t="n">
-        <v>70.00539589882683</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W9" t="n">
         <v>0</v>
@@ -28013,7 +28013,7 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>135.5663557888582</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -28034,7 +28034,7 @@
         <v>109.1541654470835</v>
       </c>
       <c r="J10" t="n">
-        <v>18.15430933923925</v>
+        <v>18.15430933923912</v>
       </c>
       <c r="K10" t="n">
         <v>0</v>
@@ -28055,13 +28055,13 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>22.59469128425539</v>
       </c>
       <c r="R10" t="n">
-        <v>108.0728512656386</v>
+        <v>108.0728512656385</v>
       </c>
       <c r="S10" t="n">
-        <v>197.1876907596159</v>
+        <v>197.1876907596158</v>
       </c>
       <c r="T10" t="n">
         <v>221.3678187343026</v>
@@ -28076,7 +28076,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>216.6238813635245</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28395,7 +28395,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="15">
@@ -30714,7 +30714,7 @@
         <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-12</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>2.204904285077002</v>
+        <v>2.204904285077003</v>
       </c>
       <c r="H2" t="n">
         <v>22.58097600954486</v>
       </c>
       <c r="I2" t="n">
-        <v>85.00457245043121</v>
+        <v>85.00457245043124</v>
       </c>
       <c r="J2" t="n">
-        <v>187.1384950655544</v>
+        <v>187.1384950655545</v>
       </c>
       <c r="K2" t="n">
-        <v>280.4720934528639</v>
+        <v>280.472093452864</v>
       </c>
       <c r="L2" t="n">
-        <v>347.9504329672893</v>
+        <v>347.9504329672894</v>
       </c>
       <c r="M2" t="n">
-        <v>387.1618995470274</v>
+        <v>387.1618995470276</v>
       </c>
       <c r="N2" t="n">
-        <v>393.4265838470025</v>
+        <v>393.4265838470026</v>
       </c>
       <c r="O2" t="n">
-        <v>371.501566862268</v>
+        <v>371.5015668622682</v>
       </c>
       <c r="P2" t="n">
-        <v>317.0679923244295</v>
+        <v>317.0679923244296</v>
       </c>
       <c r="Q2" t="n">
-        <v>238.1048576151093</v>
+        <v>238.1048576151094</v>
       </c>
       <c r="R2" t="n">
         <v>138.5038187974684</v>
       </c>
       <c r="S2" t="n">
-        <v>50.24425639619223</v>
+        <v>50.24425639619226</v>
       </c>
       <c r="T2" t="n">
-        <v>9.651968507924582</v>
+        <v>9.651968507924586</v>
       </c>
       <c r="U2" t="n">
-        <v>0.1763923428061601</v>
+        <v>0.1763923428061602</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>1.179727797435304</v>
+        <v>1.179727797435305</v>
       </c>
       <c r="H3" t="n">
         <v>11.39368688575676</v>
       </c>
       <c r="I3" t="n">
-        <v>40.61782109590851</v>
+        <v>40.61782109590853</v>
       </c>
       <c r="J3" t="n">
-        <v>111.4584056340083</v>
+        <v>111.4584056340084</v>
       </c>
       <c r="K3" t="n">
-        <v>190.5001680621737</v>
+        <v>190.5001680621738</v>
       </c>
       <c r="L3" t="n">
-        <v>256.1509851405033</v>
+        <v>256.1509851405034</v>
       </c>
       <c r="M3" t="n">
-        <v>298.916117797533</v>
+        <v>298.9161177975332</v>
       </c>
       <c r="N3" t="n">
-        <v>306.8275379829655</v>
+        <v>306.8275379829656</v>
       </c>
       <c r="O3" t="n">
-        <v>280.6872536292674</v>
+        <v>280.6872536292675</v>
       </c>
       <c r="P3" t="n">
-        <v>225.2762668628872</v>
+        <v>225.2762668628873</v>
       </c>
       <c r="Q3" t="n">
-        <v>150.5912184936715</v>
+        <v>150.5912184936716</v>
       </c>
       <c r="R3" t="n">
-        <v>73.24660833550077</v>
+        <v>73.24660833550081</v>
       </c>
       <c r="S3" t="n">
         <v>21.91292641288821</v>
       </c>
       <c r="T3" t="n">
-        <v>4.75513090282037</v>
+        <v>4.755130902820373</v>
       </c>
       <c r="U3" t="n">
-        <v>0.07761367088390164</v>
+        <v>0.07761367088390167</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,16 +31199,16 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.9890441557445822</v>
+        <v>0.9890441557445825</v>
       </c>
       <c r="H4" t="n">
-        <v>8.793501675620018</v>
+        <v>8.793501675620021</v>
       </c>
       <c r="I4" t="n">
-        <v>29.74325515639162</v>
+        <v>29.74325515639164</v>
       </c>
       <c r="J4" t="n">
-        <v>69.92542181114196</v>
+        <v>69.92542181114199</v>
       </c>
       <c r="K4" t="n">
         <v>114.9089482765069</v>
@@ -31217,31 +31217,31 @@
         <v>147.0438920276991</v>
       </c>
       <c r="M4" t="n">
-        <v>155.0371670682166</v>
+        <v>155.0371670682167</v>
       </c>
       <c r="N4" t="n">
         <v>151.3507297604415</v>
       </c>
       <c r="O4" t="n">
-        <v>139.7968957592433</v>
+        <v>139.7968957592434</v>
       </c>
       <c r="P4" t="n">
         <v>119.6203949820538</v>
       </c>
       <c r="Q4" t="n">
-        <v>82.81896107784861</v>
+        <v>82.81896107784864</v>
       </c>
       <c r="R4" t="n">
-        <v>44.47102176647911</v>
+        <v>44.47102176647913</v>
       </c>
       <c r="S4" t="n">
-        <v>17.23634224147603</v>
+        <v>17.23634224147604</v>
       </c>
       <c r="T4" t="n">
-        <v>4.225915938181395</v>
+        <v>4.225915938181397</v>
       </c>
       <c r="U4" t="n">
-        <v>0.05394786304061363</v>
+        <v>0.05394786304061366</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31278,49 +31278,49 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>3.050852781085674</v>
+        <v>3.05085278108566</v>
       </c>
       <c r="H5" t="n">
-        <v>31.24454604429367</v>
+        <v>31.24454604429353</v>
       </c>
       <c r="I5" t="n">
-        <v>117.6180018428056</v>
+        <v>117.618001842805</v>
       </c>
       <c r="J5" t="n">
-        <v>258.9373162286705</v>
+        <v>258.9373162286693</v>
       </c>
       <c r="K5" t="n">
-        <v>388.0799144520271</v>
+        <v>388.0799144520254</v>
       </c>
       <c r="L5" t="n">
-        <v>481.4474502511779</v>
+        <v>481.4474502511758</v>
       </c>
       <c r="M5" t="n">
-        <v>535.7030533968102</v>
+        <v>535.7030533968078</v>
       </c>
       <c r="N5" t="n">
-        <v>544.37128886107</v>
+        <v>544.3712888610676</v>
       </c>
       <c r="O5" t="n">
-        <v>514.0343715191493</v>
+        <v>514.0343715191469</v>
       </c>
       <c r="P5" t="n">
-        <v>438.7164434860966</v>
+        <v>438.7164434860946</v>
       </c>
       <c r="Q5" t="n">
-        <v>329.4577782634659</v>
+        <v>329.4577782634643</v>
       </c>
       <c r="R5" t="n">
-        <v>191.6431310098731</v>
+        <v>191.6431310098723</v>
       </c>
       <c r="S5" t="n">
-        <v>69.52130774898987</v>
+        <v>69.52130774898956</v>
       </c>
       <c r="T5" t="n">
-        <v>13.35510804920255</v>
+        <v>13.35510804920249</v>
       </c>
       <c r="U5" t="n">
-        <v>0.2440682224868539</v>
+        <v>0.2440682224868528</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31357,49 +31357,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>1.632350146030888</v>
+        <v>1.632350146030881</v>
       </c>
       <c r="H6" t="n">
-        <v>15.76506588403516</v>
+        <v>15.76506588403509</v>
       </c>
       <c r="I6" t="n">
-        <v>56.20152915062489</v>
+        <v>56.20152915062463</v>
       </c>
       <c r="J6" t="n">
-        <v>154.2212916475937</v>
+        <v>154.221291647593</v>
       </c>
       <c r="K6" t="n">
-        <v>263.5887514316632</v>
+        <v>263.588751431662</v>
       </c>
       <c r="L6" t="n">
-        <v>354.4276051721891</v>
+        <v>354.4276051721876</v>
       </c>
       <c r="M6" t="n">
-        <v>413.6002979658087</v>
+        <v>413.6002979658069</v>
       </c>
       <c r="N6" t="n">
-        <v>424.5470671468668</v>
+        <v>424.5470671468649</v>
       </c>
       <c r="O6" t="n">
-        <v>388.3776244374455</v>
+        <v>388.3776244374438</v>
       </c>
       <c r="P6" t="n">
-        <v>311.7072835872492</v>
+        <v>311.7072835872478</v>
       </c>
       <c r="Q6" t="n">
-        <v>208.3680642547499</v>
+        <v>208.368064254749</v>
       </c>
       <c r="R6" t="n">
-        <v>101.3488976632161</v>
+        <v>101.3488976632156</v>
       </c>
       <c r="S6" t="n">
-        <v>30.32018801947722</v>
+        <v>30.32018801947709</v>
       </c>
       <c r="T6" t="n">
-        <v>6.579516597378885</v>
+        <v>6.579516597378855</v>
       </c>
       <c r="U6" t="n">
-        <v>0.1073914569757164</v>
+        <v>0.1073914569757159</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31436,49 +31436,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>1.368507528236997</v>
+        <v>1.368507528236991</v>
       </c>
       <c r="H7" t="n">
-        <v>12.16727602377985</v>
+        <v>12.1672760237798</v>
       </c>
       <c r="I7" t="n">
-        <v>41.15475366734534</v>
+        <v>41.15475366734515</v>
       </c>
       <c r="J7" t="n">
-        <v>96.75348224635567</v>
+        <v>96.75348224635525</v>
       </c>
       <c r="K7" t="n">
-        <v>158.9956928260802</v>
+        <v>158.9956928260794</v>
       </c>
       <c r="L7" t="n">
-        <v>203.4597465162532</v>
+        <v>203.4597465162523</v>
       </c>
       <c r="M7" t="n">
-        <v>214.519775539914</v>
+        <v>214.519775539913</v>
       </c>
       <c r="N7" t="n">
-        <v>209.418974752849</v>
+        <v>209.418974752848</v>
       </c>
       <c r="O7" t="n">
-        <v>193.4323186275349</v>
+        <v>193.432318627534</v>
       </c>
       <c r="P7" t="n">
-        <v>165.5147650515</v>
+        <v>165.5147650514993</v>
       </c>
       <c r="Q7" t="n">
-        <v>114.5938440235544</v>
+        <v>114.5938440235538</v>
       </c>
       <c r="R7" t="n">
-        <v>61.53307486054714</v>
+        <v>61.53307486054686</v>
       </c>
       <c r="S7" t="n">
-        <v>23.84935392391202</v>
+        <v>23.84935392391191</v>
       </c>
       <c r="T7" t="n">
-        <v>5.847259438830804</v>
+        <v>5.847259438830777</v>
       </c>
       <c r="U7" t="n">
-        <v>0.07464586517656356</v>
+        <v>0.07464586517656321</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31515,49 +31515,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>3.432002671508275</v>
+        <v>3.432002671508279</v>
       </c>
       <c r="H8" t="n">
-        <v>35.14799735958413</v>
+        <v>35.14799735958417</v>
       </c>
       <c r="I8" t="n">
-        <v>132.3122829933229</v>
+        <v>132.3122829933231</v>
       </c>
       <c r="J8" t="n">
-        <v>291.2869367409257</v>
+        <v>291.2869367409261</v>
       </c>
       <c r="K8" t="n">
-        <v>436.5636098258711</v>
+        <v>436.5636098258717</v>
       </c>
       <c r="L8" t="n">
-        <v>541.5957615840426</v>
+        <v>541.5957615840433</v>
       </c>
       <c r="M8" t="n">
-        <v>602.6296390934779</v>
+        <v>602.6296390934787</v>
       </c>
       <c r="N8" t="n">
-        <v>612.3808166839008</v>
+        <v>612.3808166839016</v>
       </c>
       <c r="O8" t="n">
-        <v>578.2538401190903</v>
+        <v>578.253840119091</v>
       </c>
       <c r="P8" t="n">
-        <v>493.5262741662298</v>
+        <v>493.5262741662303</v>
       </c>
       <c r="Q8" t="n">
-        <v>370.6176784928395</v>
+        <v>370.61767849284</v>
       </c>
       <c r="R8" t="n">
-        <v>215.5855378141319</v>
+        <v>215.5855378141322</v>
       </c>
       <c r="S8" t="n">
-        <v>78.20676087699491</v>
+        <v>78.20676087699499</v>
       </c>
       <c r="T8" t="n">
-        <v>15.02359169452748</v>
+        <v>15.0235916945275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.274560213720662</v>
+        <v>0.2745602137206623</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31594,49 +31594,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>1.836283316175396</v>
+        <v>1.836283316175398</v>
       </c>
       <c r="H9" t="n">
-        <v>17.73463097464133</v>
+        <v>17.73463097464135</v>
       </c>
       <c r="I9" t="n">
-        <v>63.22291242095115</v>
+        <v>63.22291242095122</v>
       </c>
       <c r="J9" t="n">
-        <v>173.4885040076062</v>
+        <v>173.4885040076064</v>
       </c>
       <c r="K9" t="n">
-        <v>296.5194861913577</v>
+        <v>296.5194861913581</v>
       </c>
       <c r="L9" t="n">
-        <v>398.7070419616798</v>
+        <v>398.7070419616803</v>
       </c>
       <c r="M9" t="n">
-        <v>465.2723121730378</v>
+        <v>465.2723121730384</v>
       </c>
       <c r="N9" t="n">
-        <v>477.5866858152843</v>
+        <v>477.5866858152849</v>
       </c>
       <c r="O9" t="n">
-        <v>436.8985133884505</v>
+        <v>436.898513388451</v>
       </c>
       <c r="P9" t="n">
-        <v>350.6495746475632</v>
+        <v>350.6495746475636</v>
       </c>
       <c r="Q9" t="n">
-        <v>234.3999545349506</v>
+        <v>234.3999545349509</v>
       </c>
       <c r="R9" t="n">
-        <v>114.0106430867496</v>
+        <v>114.0106430867498</v>
       </c>
       <c r="S9" t="n">
-        <v>34.10815721053859</v>
+        <v>34.10815721053863</v>
       </c>
       <c r="T9" t="n">
-        <v>7.401510384057843</v>
+        <v>7.401510384057852</v>
       </c>
       <c r="U9" t="n">
-        <v>0.1208081129062761</v>
+        <v>0.1208081129062763</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31673,49 +31673,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>1.539478247526971</v>
+        <v>1.539478247526973</v>
       </c>
       <c r="H10" t="n">
-        <v>13.68736114619435</v>
+        <v>13.68736114619437</v>
       </c>
       <c r="I10" t="n">
-        <v>46.29630948017475</v>
+        <v>46.29630948017481</v>
       </c>
       <c r="J10" t="n">
-        <v>108.8411121001569</v>
+        <v>108.841112100157</v>
       </c>
       <c r="K10" t="n">
-        <v>178.8593818490426</v>
+        <v>178.8593818490428</v>
       </c>
       <c r="L10" t="n">
-        <v>228.8784296368736</v>
+        <v>228.8784296368738</v>
       </c>
       <c r="M10" t="n">
-        <v>241.3202129282506</v>
+        <v>241.3202129282508</v>
       </c>
       <c r="N10" t="n">
-        <v>235.5821576420139</v>
+        <v>235.5821576420142</v>
       </c>
       <c r="O10" t="n">
-        <v>217.5982526595396</v>
+        <v>217.5982526595399</v>
       </c>
       <c r="P10" t="n">
-        <v>186.1928964099892</v>
+        <v>186.1928964099895</v>
       </c>
       <c r="Q10" t="n">
-        <v>128.9103103451903</v>
+        <v>128.9103103451905</v>
       </c>
       <c r="R10" t="n">
-        <v>69.22054011153089</v>
+        <v>69.22054011153097</v>
       </c>
       <c r="S10" t="n">
-        <v>26.82890727735639</v>
+        <v>26.82890727735642</v>
       </c>
       <c r="T10" t="n">
-        <v>6.577770693978875</v>
+        <v>6.577770693978883</v>
       </c>
       <c r="U10" t="n">
-        <v>0.08397154077419852</v>
+        <v>0.08397154077419863</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31752,37 +31752,37 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L11" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R11" t="n">
         <v>345.4516222043725</v>
@@ -31791,10 +31791,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T11" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31840,25 +31840,25 @@
         <v>99.52238</v>
       </c>
       <c r="J12" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K12" t="n">
-        <v>248.0319961154043</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>400.5469039565771</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
@@ -31867,10 +31867,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T12" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U12" t="n">
         <v>0.1935814387275954</v>
@@ -31916,28 +31916,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K13" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L13" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M13" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N13" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P13" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q13" t="n">
         <v>206.5643005515927</v>
@@ -31946,7 +31946,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31989,37 +31989,37 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L14" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R14" t="n">
         <v>345.4516222043725</v>
@@ -32028,10 +32028,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T14" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32074,28 +32074,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K15" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M15" t="n">
-        <v>652.0478969157701</v>
+        <v>573.8098963904301</v>
       </c>
       <c r="N15" t="n">
-        <v>131.3417120833333</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214697</v>
       </c>
       <c r="Q15" t="n">
         <v>139.9817740860215</v>
@@ -32104,10 +32104,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T15" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U15" t="n">
         <v>0.1935814387275954</v>
@@ -32153,28 +32153,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K16" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L16" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M16" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N16" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P16" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q16" t="n">
         <v>206.5643005515927</v>
@@ -32183,7 +32183,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32226,37 +32226,37 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H17" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I17" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J17" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K17" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L17" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M17" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N17" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O17" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P17" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q17" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R17" t="n">
         <v>345.4516222043725</v>
@@ -32265,10 +32265,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T17" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U17" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32311,25 +32311,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K18" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M18" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982898</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O18" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437242</v>
       </c>
       <c r="P18" t="n">
         <v>133.9744074143302</v>
@@ -32341,10 +32341,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T18" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U18" t="n">
         <v>0.1935814387275954</v>
@@ -32390,28 +32390,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I19" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J19" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K19" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L19" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M19" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N19" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O19" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P19" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q19" t="n">
         <v>206.5643005515927</v>
@@ -32420,7 +32420,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S19" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T19" t="n">
         <v>10.54013910099322</v>
@@ -32548,7 +32548,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
         <v>277.9958514420755</v>
@@ -32560,13 +32560,13 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N21" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>400.5469039565762</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
         <v>133.9744074143302</v>
@@ -32785,7 +32785,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
         <v>277.9958514420755</v>
@@ -32803,7 +32803,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
         <v>133.9744074143302</v>
@@ -33022,7 +33022,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>277.9958514420755</v>
@@ -33040,7 +33040,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
         <v>133.9744074143302</v>
@@ -33259,7 +33259,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33277,7 +33277,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P30" t="n">
         <v>133.9744074143302</v>
@@ -33496,7 +33496,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
         <v>277.9958514420755</v>
@@ -33514,7 +33514,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
         <v>133.9744074143302</v>
@@ -33666,7 +33666,7 @@
         <v>867.846407116256</v>
       </c>
       <c r="M35" t="n">
-        <v>965.6463440175679</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N35" t="n">
         <v>981.2715114159425</v>
@@ -33733,7 +33733,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
         <v>277.9958514420755</v>
@@ -33751,7 +33751,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
         <v>133.9744074143302</v>
@@ -33970,7 +33970,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
         <v>277.9958514420755</v>
@@ -33988,7 +33988,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
         <v>133.9744074143302</v>
@@ -34207,7 +34207,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>277.9958514420755</v>
@@ -34225,7 +34225,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
         <v>133.9744074143302</v>
@@ -34359,37 +34359,37 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348432</v>
       </c>
       <c r="H44" t="n">
-        <v>56.32071997135341</v>
+        <v>56.3207199713534</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067231</v>
       </c>
       <c r="J44" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663281</v>
       </c>
       <c r="K44" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817574</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162559</v>
       </c>
       <c r="M44" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175673</v>
       </c>
       <c r="N44" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159424</v>
       </c>
       <c r="O44" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460026</v>
       </c>
       <c r="P44" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236506</v>
       </c>
       <c r="Q44" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669222</v>
       </c>
       <c r="R44" t="n">
         <v>345.4516222043725</v>
@@ -34398,10 +34398,10 @@
         <v>125.31755462929</v>
       </c>
       <c r="T44" t="n">
-        <v>24.07361910651528</v>
+        <v>24.07361910651527</v>
       </c>
       <c r="U44" t="n">
-        <v>0.4399519197078746</v>
+        <v>0.4399519197078745</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34444,25 +34444,25 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>277.9958514420755</v>
+        <v>277.9958514420754</v>
       </c>
       <c r="K45" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>638.8832749473072</v>
+        <v>638.8832749473071</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>745.5466476862119</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>765.2790490071783</v>
       </c>
       <c r="O45" t="n">
-        <v>400.5469039565762</v>
+        <v>398.7616643558023</v>
       </c>
       <c r="P45" t="n">
         <v>133.9744074143302</v>
@@ -34474,10 +34474,10 @@
         <v>145.679503963964</v>
       </c>
       <c r="S45" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742437</v>
       </c>
       <c r="T45" t="n">
-        <v>11.86008947937734</v>
+        <v>11.86008947937733</v>
       </c>
       <c r="U45" t="n">
         <v>0.1935814387275954</v>
@@ -34523,28 +34523,28 @@
         <v>21.9324596612157</v>
       </c>
       <c r="I46" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869274</v>
       </c>
       <c r="J46" t="n">
         <v>174.4056633796261</v>
       </c>
       <c r="K46" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355177</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588152</v>
       </c>
       <c r="M46" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392044</v>
       </c>
       <c r="N46" t="n">
         <v>377.4939606106788</v>
       </c>
       <c r="O46" t="n">
-        <v>348.6767717920058</v>
+        <v>348.6767717920056</v>
       </c>
       <c r="P46" t="n">
-        <v>298.3532140417315</v>
+        <v>298.3532140417314</v>
       </c>
       <c r="Q46" t="n">
         <v>206.5643005515927</v>
@@ -34553,7 +34553,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S46" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532765</v>
       </c>
       <c r="T46" t="n">
         <v>10.54013910099322</v>
@@ -34698,28 +34698,28 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.09259053886808</v>
+        <v>6.092590538868166</v>
       </c>
       <c r="K2" t="n">
-        <v>60.38224240788338</v>
+        <v>60.3822424078835</v>
       </c>
       <c r="L2" t="n">
-        <v>112.1840179973021</v>
+        <v>112.1840179973022</v>
       </c>
       <c r="M2" t="n">
-        <v>156.8156663197547</v>
+        <v>156.8156663197549</v>
       </c>
       <c r="N2" t="n">
-        <v>164.0135202504116</v>
+        <v>164.0135202504117</v>
       </c>
       <c r="O2" t="n">
-        <v>141.4033554405813</v>
+        <v>141.4033554405815</v>
       </c>
       <c r="P2" t="n">
-        <v>85.83499656915996</v>
+        <v>85.83499656916007</v>
       </c>
       <c r="Q2" t="n">
-        <v>15.79916774065978</v>
+        <v>15.7991677406599</v>
       </c>
       <c r="R2" t="n">
         <v>0</v>
@@ -34780,25 +34780,25 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>52.65872908781472</v>
+        <v>52.65872908781481</v>
       </c>
       <c r="L3" t="n">
-        <v>117.5966053606291</v>
+        <v>117.5966053606292</v>
       </c>
       <c r="M3" t="n">
-        <v>156.7820838755147</v>
+        <v>156.7820838755148</v>
       </c>
       <c r="N3" t="n">
-        <v>175.4858258996321</v>
+        <v>175.4858258996323</v>
       </c>
       <c r="O3" t="n">
-        <v>138.091009184823</v>
+        <v>138.0910091848231</v>
       </c>
       <c r="P3" t="n">
-        <v>91.301859448557</v>
+        <v>91.30185944855708</v>
       </c>
       <c r="Q3" t="n">
-        <v>10.60944440764999</v>
+        <v>10.60944440765005</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34862,16 +34862,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>12.1592157464608</v>
+        <v>12.15921574646086</v>
       </c>
       <c r="M4" t="n">
-        <v>16.11138312061155</v>
+        <v>16.11138312061163</v>
       </c>
       <c r="N4" t="n">
-        <v>23.66518529520829</v>
+        <v>23.66518529520835</v>
       </c>
       <c r="O4" t="n">
-        <v>1.340357307400552</v>
+        <v>1.340357307400609</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -34935,28 +34935,28 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>77.89141170198417</v>
+        <v>77.89141170198303</v>
       </c>
       <c r="K5" t="n">
-        <v>167.9900634070466</v>
+        <v>167.9900634070448</v>
       </c>
       <c r="L5" t="n">
-        <v>245.6810352811907</v>
+        <v>245.6810352811885</v>
       </c>
       <c r="M5" t="n">
-        <v>305.3568201695375</v>
+        <v>305.3568201695351</v>
       </c>
       <c r="N5" t="n">
-        <v>314.958225264479</v>
+        <v>314.9582252644767</v>
       </c>
       <c r="O5" t="n">
-        <v>283.9361600974626</v>
+        <v>283.9361600974602</v>
       </c>
       <c r="P5" t="n">
-        <v>207.4834477308271</v>
+        <v>207.4834477308251</v>
       </c>
       <c r="Q5" t="n">
-        <v>107.1520883890164</v>
+        <v>107.1520883890148</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35014,28 +35014,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>27.38366498092702</v>
+        <v>27.38366498092634</v>
       </c>
       <c r="K6" t="n">
-        <v>125.7473124573042</v>
+        <v>125.7473124573031</v>
       </c>
       <c r="L6" t="n">
-        <v>215.873225392315</v>
+        <v>215.8732253923134</v>
       </c>
       <c r="M6" t="n">
-        <v>271.4662640437904</v>
+        <v>271.4662640437886</v>
       </c>
       <c r="N6" t="n">
-        <v>293.2053550635335</v>
+        <v>293.2053550635317</v>
       </c>
       <c r="O6" t="n">
-        <v>245.7813799930011</v>
+        <v>245.7813799929994</v>
       </c>
       <c r="P6" t="n">
-        <v>177.732876172919</v>
+        <v>177.7328761729175</v>
       </c>
       <c r="Q6" t="n">
-        <v>68.38629016872838</v>
+        <v>68.38629016872744</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35096,22 +35096,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>29.98243465554478</v>
+        <v>29.98243465554407</v>
       </c>
       <c r="L7" t="n">
-        <v>68.57507023501492</v>
+        <v>68.57507023501401</v>
       </c>
       <c r="M7" t="n">
-        <v>75.5939915923089</v>
+        <v>75.59399159230793</v>
       </c>
       <c r="N7" t="n">
-        <v>81.73343028761576</v>
+        <v>81.73343028761482</v>
       </c>
       <c r="O7" t="n">
-        <v>54.97578017569208</v>
+        <v>54.97578017569123</v>
       </c>
       <c r="P7" t="n">
-        <v>27.78676100235239</v>
+        <v>27.78676100235165</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35172,28 +35172,28 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>110.2410322142395</v>
+        <v>110.2410322142398</v>
       </c>
       <c r="K8" t="n">
-        <v>216.4737587808906</v>
+        <v>216.4737587808911</v>
       </c>
       <c r="L8" t="n">
-        <v>305.8293466140554</v>
+        <v>305.8293466140561</v>
       </c>
       <c r="M8" t="n">
-        <v>372.2834058662052</v>
+        <v>372.283405866206</v>
       </c>
       <c r="N8" t="n">
-        <v>382.9677530873099</v>
+        <v>382.9677530873107</v>
       </c>
       <c r="O8" t="n">
-        <v>348.1556286974036</v>
+        <v>348.1556286974043</v>
       </c>
       <c r="P8" t="n">
-        <v>262.2932784109602</v>
+        <v>262.2932784109608</v>
       </c>
       <c r="Q8" t="n">
-        <v>148.31198861839</v>
+        <v>148.3119886183905</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35251,28 +35251,28 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>46.6508773409395</v>
+        <v>46.6508773409397</v>
       </c>
       <c r="K9" t="n">
-        <v>158.6780472169987</v>
+        <v>158.6780472169991</v>
       </c>
       <c r="L9" t="n">
-        <v>260.1526621818056</v>
+        <v>260.1526621818061</v>
       </c>
       <c r="M9" t="n">
-        <v>323.1382782510195</v>
+        <v>323.13827825102</v>
       </c>
       <c r="N9" t="n">
-        <v>346.2449737319509</v>
+        <v>346.2449737319515</v>
       </c>
       <c r="O9" t="n">
-        <v>294.302268944006</v>
+        <v>294.3022689440066</v>
       </c>
       <c r="P9" t="n">
-        <v>216.6751672332329</v>
+        <v>216.6751672332334</v>
       </c>
       <c r="Q9" t="n">
-        <v>94.41818044892906</v>
+        <v>94.41818044892935</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35333,22 +35333,22 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>49.84612367850724</v>
+        <v>49.84612367850744</v>
       </c>
       <c r="L10" t="n">
-        <v>93.99375335563528</v>
+        <v>93.99375335563556</v>
       </c>
       <c r="M10" t="n">
-        <v>102.3944289806455</v>
+        <v>102.3944289806458</v>
       </c>
       <c r="N10" t="n">
-        <v>107.8966131767807</v>
+        <v>107.896613176781</v>
       </c>
       <c r="O10" t="n">
-        <v>79.14171420769682</v>
+        <v>79.14171420769708</v>
       </c>
       <c r="P10" t="n">
-        <v>48.46489236084162</v>
+        <v>48.46489236084184</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -35406,31 +35406,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J11" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K11" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L11" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O11" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902404</v>
@@ -35488,25 +35488,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K12" t="n">
-        <v>110.1905571410453</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M12" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>257.9506595121327</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
@@ -35567,7 +35567,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K13" t="n">
         <v>264.3325884096349</v>
@@ -35576,19 +35576,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M13" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O13" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P13" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q13" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35643,31 +35643,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J14" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K14" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L14" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O14" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902404</v>
@@ -35722,28 +35722,28 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J15" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L15" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M15" t="n">
-        <v>509.9138629937518</v>
+        <v>431.6758624684119</v>
       </c>
       <c r="N15" t="n">
-        <v>0</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>0</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071394</v>
       </c>
       <c r="Q15" t="n">
         <v>0</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K16" t="n">
         <v>264.3325884096349</v>
@@ -35813,19 +35813,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M16" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O16" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q16" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35880,31 +35880,31 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J17" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K17" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L17" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M17" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N17" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O17" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P17" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q17" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R17" t="n">
         <v>129.8660843902404</v>
@@ -35959,25 +35959,25 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J18" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K18" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L18" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M18" t="n">
-        <v>603.4126137641938</v>
+        <v>302.0934576762715</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O18" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992797</v>
       </c>
       <c r="P18" t="n">
         <v>0</v>
@@ -36041,7 +36041,7 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K19" t="n">
         <v>264.3325884096349</v>
@@ -36050,19 +36050,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M19" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N19" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P19" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q19" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36196,7 +36196,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
         <v>151.1582247754088</v>
@@ -36208,13 +36208,13 @@
         <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N21" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>257.9506595121318</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
         <v>0</v>
@@ -36433,7 +36433,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36451,7 +36451,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
         <v>0</v>
@@ -36670,7 +36670,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>151.1582247754088</v>
@@ -36688,7 +36688,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
         <v>0</v>
@@ -36907,7 +36907,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36925,7 +36925,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P30" t="n">
         <v>0</v>
@@ -37144,7 +37144,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
         <v>151.1582247754088</v>
@@ -37162,7 +37162,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
         <v>0</v>
@@ -37314,7 +37314,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M35" t="n">
-        <v>735.3001107902952</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N35" t="n">
         <v>751.8584478193516</v>
@@ -37381,7 +37381,7 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
         <v>151.1582247754088</v>
@@ -37399,7 +37399,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
         <v>0</v>
@@ -37618,7 +37618,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
         <v>151.1582247754088</v>
@@ -37636,7 +37636,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
         <v>0</v>
@@ -37855,7 +37855,7 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>151.1582247754088</v>
@@ -37873,7 +37873,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
         <v>0</v>
@@ -38013,31 +38013,31 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317227</v>
       </c>
       <c r="J44" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396419</v>
       </c>
       <c r="K44" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367769</v>
       </c>
       <c r="L44" t="n">
         <v>632.0799921462688</v>
       </c>
       <c r="M44" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902946</v>
       </c>
       <c r="N44" t="n">
         <v>751.8584478193516</v>
       </c>
       <c r="O44" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243158</v>
       </c>
       <c r="P44" t="n">
         <v>559.5874541683811</v>
       </c>
       <c r="Q44" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924726</v>
       </c>
       <c r="R44" t="n">
         <v>129.8660843902404</v>
@@ -38092,25 +38092,25 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774901</v>
       </c>
       <c r="J45" t="n">
-        <v>151.1582247754088</v>
+        <v>151.1582247754087</v>
       </c>
       <c r="K45" t="n">
-        <v>337.2977496678996</v>
+        <v>337.2977496678995</v>
       </c>
       <c r="L45" t="n">
-        <v>500.328895167433</v>
+        <v>500.3288951674329</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>603.4126137641936</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>633.937336923845</v>
       </c>
       <c r="O45" t="n">
-        <v>257.9506595121318</v>
+        <v>256.1654199113578</v>
       </c>
       <c r="P45" t="n">
         <v>0</v>
@@ -38174,7 +38174,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295333</v>
       </c>
       <c r="K46" t="n">
         <v>264.3325884096349</v>
@@ -38183,19 +38183,19 @@
         <v>394.3420143191314</v>
       </c>
       <c r="M46" t="n">
-        <v>426.2724270010451</v>
+        <v>426.272427001045</v>
       </c>
       <c r="N46" t="n">
-        <v>421.6261329899074</v>
+        <v>421.6261329899073</v>
       </c>
       <c r="O46" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060453</v>
       </c>
       <c r="P46" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066249</v>
       </c>
       <c r="Q46" t="n">
-        <v>120.4022572998984</v>
+        <v>120.4022572998983</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
